--- a/data/hotels_by_city/Dallas/Dallas_shard_343.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_343.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Charles C</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Rjmathers_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r521248611-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Daddie-Ohh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r489571172-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>My son and I stayed at the Grand Prairie HIE May 28th prior to attending the DFW National Cemetery Memorial Day Celebration. We were met by a pleasant receptionist who greeted me and then personally greeted my 15 year old son (nice). It was apparent from the moment we entered the hotel that this place was well kept.  The entrance area was spotless.  Fresh fruit available (that actually looked appetizing) in a nice clean bowl.  We stayed in a double queen suite; your usual HIE room but impeccably clean. Absolutely no issues, comfortable clean beds. We enjoyed the regular HIE breakfast fare but noted that the fruit, bagels, muffins were fresh!! The next morning, the front desk staff let us leave our things in the room until after the Memorial Day Ceremony. We didn't return until sometime between noon and 1:00 PM but they had no problem and even asked how we enjoyed the ceremony.  You simply can't ask for more from an HIE stay.More</t>
   </si>
   <si>
+    <t>mikep1022</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r479325065-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>jenncarvajal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r467652278-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Robert  J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r357825444-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>LeAnn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r349299290-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -298,6 +319,9 @@
   </si>
   <si>
     <t>We had the opportunity to do a whirlwind college visit trip with our son.  We traveled right at 900 miles in a little over four days time.  We stayed in 3 comparable hotels, roughly 250 miles apart from the last one, 3 different chains, 3 nights in a row.  We choose this one because it was close to the University our son was visiting and offered a reduced rate.  Out of the three hotels we stayed, I'd rank it 2nd.  It was nice for a overnight stay.  It was a  odd, because parts of the hotellooked newer and parts looked old.  There was a building permit on the door, so I guess they are getting ready to remodel  The furniture was in good shape, but very outdated oak looking stuff.  I have never been in an elevator with a tv.  Seems like a waste, we were only on the 2nd floor-quirky, but no big deal one way or the other.  Same thing with a very old fashioned phone on the bathroom wall.  The bathroom was clean, but the coffee pot on the bathroom vanity, with a real pot and real cups just isn't sanity or appealing to me. The counter looked like marble, sure it wasn't, but the shower bathtub was the only "pre-fab" job out of the three we stayed in.  The shower, did have the best water pressure. One thing I would like this chain to consider:  Most...We had the opportunity to do a whirlwind college visit trip with our son.  We traveled right at 900 miles in a little over four days time.  We stayed in 3 comparable hotels, roughly 250 miles apart from the last one, 3 different chains, 3 nights in a row.  We choose this one because it was close to the University our son was visiting and offered a reduced rate.  Out of the three hotels we stayed, I'd rank it 2nd.  It was nice for a overnight stay.  It was a  odd, because parts of the hotellooked newer and parts looked old.  There was a building permit on the door, so I guess they are getting ready to remodel  The furniture was in good shape, but very outdated oak looking stuff.  I have never been in an elevator with a tv.  Seems like a waste, we were only on the 2nd floor-quirky, but no big deal one way or the other.  Same thing with a very old fashioned phone on the bathroom wall.  The bathroom was clean, but the coffee pot on the bathroom vanity, with a real pot and real cups just isn't sanity or appealing to me. The counter looked like marble, sure it wasn't, but the shower bathtub was the only "pre-fab" job out of the three we stayed in.  The shower, did have the best water pressure. One thing I would like this chain to consider:  Most of their hotels use Bath and Bodyworks products.  These are high quality and desirable for a lot of people.  I'm allergic to these products and would appreciate other alternatives.  I'm sure there are males who would appreciate lemon and ginger or jasmine alternatives as well.  I do appreciate the little mouth washes.  The bed was very good and overall a pleasant experience.  I went down to the breakfast area the next morning to see my husband munching on bacon.  It was the only breakfast of the three that had breakfast meat without gravy mixed in it.  That's all we had, we had a light breakfast at our college orientation, but the area was very clean and stocked.  This hotel is a good location, lots of restaurants and shops nearby, but not horrible traffic considering the location.  Will definitely stay here again should our son choose the nearby university.More</t>
+  </si>
+  <si>
+    <t>Norma J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r344870389-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
@@ -320,6 +344,9 @@
 Some hotels offer complimentary water in the rooms or for their elite loyalty program members--this hotel offers complimentary...This is a GREAT hotel!!  I spend about 300 nights per year in hotels, and this hotel always stands out.  The reason why?  All of the little things they do and offer...  First off, the location is really good: movie theater across the street, grocery store less than 5 minutes away, several restaurants within walking distance, and they are right off of I20, but you would never know it--there are huge trees between the hotel and the interstate, so you cannot hear any of the highway noise.  I mentioned the restaurants in the area, but you may not even need them.  They offer the traditional complimentary breakfast that all HIEs offer, and so much more: lots of cereal and bread options (granola and fruit bars), bacon and sausage, hard boiled and scrambled eggs (or omelettes), several juice and milk options, and if you want to take your breakfast to go (either up to your room or in the car) they will provide you with trays or to go bags and boxes.  They provide dinner to their guests 4 nights out of the week--not appetizers--full dinner!!  Tonight they were serving beef tips, mashed potatoes, corn on the cob, complimentary beer, wine and sodas.  They have ice cream for sale in the lobby, and always have complimentary fresh fruit and popcorn for their guests. Some hotels offer complimentary water in the rooms or for their elite loyalty program members--this hotel offers complimentary water to ALL of their guests (no limits!). The rooms are amazing too--they have the standard Bath and Body Works bath products as well as shower gel and mouth wash--and if you stay in one of the Jacuzzi suites, they provide complimentary tooth brush and tooth paste, razor and comb, and more shower gel for the Jacuzzi tub (mine is in the shape of a heart :D).  The suites also offer 'sleep kits' with an eye mask, ear plugs, lavender spray for your sheets.  I went to hang up my clothes for tomorrow, and there were at least 6 shirt and 6 pant/skirt hangers--so many more that what is normally found in a hotel closet.  All of the rooms have microwaves and refrigerators and HUGE TVs with expanded cable and 3 channels of current/complimentary movies.  The hotel is preparing for a complete renovation, and the staff is so excited!  They seem to be looking forward to offering their guests a 'new' hotel, and if I know this team, not only will they have a beautiful new product, they will add as many little things as they are allowed to, because they know that it's the little things that stand out and make a difference to the Road Warrior!More</t>
   </si>
   <si>
+    <t>william Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r336406991-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -335,6 +362,9 @@
     <t>We flew into DFW and drove down to I-20 to go to east Texas. This hotel is very close to the interstate. The reception was friendly and quick. The hotel is clean feels safe and was a good choice. The air conditioning works great and this is important especially if you are here in the summer.</t>
   </si>
   <si>
+    <t>1gardengirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r316946589-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -359,6 +389,9 @@
     <t>The Hotel say's it's off I-20, but at night if you are not familiar with the area it is difficult to find.  We told the girl at the desk it was difficult to find and it didn't seem to surprise her as if she had heard that before.  We stopped at the Denny's and the nice girl told us how to get there.  Once we found the way it was not a problem.  Our room was on the 2nd Floor and the room was very quiet.  Guess we were so tired a truck could have come thru the room.  We slept well and the room was comfortable.  The breakfast was ok, but girl serving did not speak much English.  We did overhear her talking to another worker.  Don't speak the language unless you know the people sitting around you don't understand.  Other than that, the stay and breakfast were good.More</t>
   </si>
   <si>
+    <t>bonniepowell540</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r303613739-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -380,6 +413,9 @@
     <t>During my stay i had my wallet lost/stolen. My room was only about 20 ft from the front desk and breakfast area (which is the only place I'd been) and realized it was missing within just about 20 minutes of leaving the hotel that morning. And i had had it in my hand just minutes of exiting my room. I checked with the front desk about 30 times throughout the day to see if anyone has returned it. I came in around 11pm and noticed there was a camera in the breakfast area....never once did anyone offer to check it for me!!!! I finally asked the what looked like a 16 yr old front desk worker that i needed to speak with a manager about my wallet and of course he was completely alone and we had to suggest getting the police from the next door ihop to get him to call someone. Was told the manager was the only one that could veiw the tapes and he would be in the next day at 10am. Well of course I had to check out and be gone by 6 am. Nicely enough I got a call stating a guest returned my wallet and it was found in the parking lot. Of course no cash left. Not to mention being 20 hrs from home no money no cards and no id throughout my only full day in texas and all the...During my stay i had my wallet lost/stolen. My room was only about 20 ft from the front desk and breakfast area (which is the only place I'd been) and realized it was missing within just about 20 minutes of leaving the hotel that morning. And i had had it in my hand just minutes of exiting my room. I checked with the front desk about 30 times throughout the day to see if anyone has returned it. I came in around 11pm and noticed there was a camera in the breakfast area....never once did anyone offer to check it for me!!!! I finally asked the what looked like a 16 yr old front desk worker that i needed to speak with a manager about my wallet and of course he was completely alone and we had to suggest getting the police from the next door ihop to get him to call someone. Was told the manager was the only one that could veiw the tapes and he would be in the next day at 10am. Well of course I had to check out and be gone by 6 am. Nicely enough I got a call stating a guest returned my wallet and it was found in the parking lot. Of course no cash left. Not to mention being 20 hrs from home no money no cards and no id throughout my only full day in texas and all the way back on a 24 hr bus ride!! Joyous!!!! Well when i asked for the manager to still call me i wanted to know if anything was on the camera....that of course never happened. Called again the next day....never happened. Then when i chose to call customer relations and explain to them the shadyness with housekeeping and allowing people in our room without permission the previous night and lack of help from a managaer....BAM 15 minutes later I got a call. The "assistant general managaer" had checked the cameras and didn't see anything. Oh and by the way no parking lot camera.....how convenient. I am appalled by the lack of security and help from the manager over this situation. I had over $200 taken from my wallet before it was returned. All I wanted to know was of it was my mistake or if somebody had vitiously taken it when I turned my back for a minute or if it was a housekeeping situation. And I got nothing from this general manager. Never a call nothing. I expect if this situation in all its detail that was to long to write had happened to him...he'd own that hotel! Needless to say I've notified the organization of over 20000 people I was joining in Texas to mark the unhelpful...less than secured hotel off the list for next year. Thanks general manager Peter for all your help, I hope this never happens to you! More</t>
   </si>
   <si>
+    <t>Borodog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r286470324-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -407,6 +443,9 @@
     <t>This is probably one of the nicest Holiday Inn Expresses that we have stayed at. It is clean, smart and the staff are the friendliest we have come across. Nothing is too much trouble. The standard Holiday Inn Express breakfast was the best we had in three weeks in Texas. The pool is great and a good place to relax after a hot day in Dallas. Our room was at the back and there was minimal noise from the I20 but the upside is that you were quickly on to the I20 to travel anywhere else.The hotel is only 20 minute drive away from DFW Airport along the I20 and 360, and the Premium Outlets are five minutes away either on the I20 or along a little back route we discovered. Around the Premium Outlets there is a Texas Roadhouse and an Applebees.More</t>
   </si>
   <si>
+    <t>scott175</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r285650213-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -434,6 +473,9 @@
     <t>Horrible experience from the check in to the check out.Reserved a double queen and got a single with pull out sofa.Front desk had the wrong check in and check out dates but refused to correct Hotel's mistake on receipt.Manager was not helpful at all. Will absolutely NEVER stay at this hotel again.More</t>
   </si>
   <si>
+    <t>Angie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r282407692-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -461,6 +503,9 @@
     <t>Even though Holiday Inns are generally a little pricier compared to Choice Hotels that I normally stay at, I was in town for a special occasion so I figured why not splurge a little and have some fun! First of all, the breakfast is out of this world. They have it all, bisquits, gravy, cinnamon rolls, all kinds of yogurt, toast, etc. The rooms were extremely clean. I couldnt find anything that was dirty in the room. The place is spacious. The bed were so comfortable, it was easily one of the best nights Ive slept in a hotel. The beds have different types of pillows too, i actually prefer the hard pillows since its easier on my neck and I put the soft ones nearby when I was working on my laptop. The check-in process took a bit longer than I would have liked. Oddly enough, the pool was outside across the parking lot. Rarely do I use hotel pools, but if I did, I would feel kind of awkward having to walk out in my bathing suit.More</t>
   </si>
   <si>
+    <t>bigbubbapk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r278822325-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -485,6 +530,9 @@
     <t>My wife and i went to see a graduation.  Our stay at this facility was Great.  Very well kept, rooms clean &amp; fresh.   A really good breakfast as well.  Very convenient location for shopping, restaurants &amp; movies.  I strongly recommend this facility for anyone in the Grand Prairie Texas area.  I know that I.will be back..More</t>
   </si>
   <si>
+    <t>acook110774</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r264665956-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -509,6 +557,9 @@
     <t>This is one of the nicest holiday inn express hotels I've stayed at. Nice happy hour twice a week, warm cookies during the day, and complimentary bottled water.Very large TV in the rooms with excellent cable selection.More</t>
   </si>
   <si>
+    <t>Debbie V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r247003471-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -530,6 +581,9 @@
     <t>We stayed 12/31 (1 night prior to the Cotton Bowl).  The hotel offered free cookies and bottled water upon check in.  The room (third floor) was clean, quiet, and the beds were very comfortable.  The breakfast selection was amazing.  Delicious coffee choices, juices, scrambled eggs and omelettes (scrambled were better), biscuits, gravy, sausage, hot and cold cereals, boiled eggs, yogurt, apples, bananas, oranges, sweet rolls and breads w/ toaster to make as you please, and several other selections.  The breakfast alone was worth it since we were headed to the game and wouldn't be eating again for several hrs.  Remember this hotel is located inside the shopping center parking lot (West chase drive I believe) just past Cheddars, etc. Hotel is no frills and not fancy, but all we wanted was a nice clean, quiet place to stay w/hot breakfast and coffee and friendly staff, and that's what we got.  It's about 10 minutes from AT&amp;T Stadium.More</t>
   </si>
   <si>
+    <t>Henddoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r239324606-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -548,6 +602,9 @@
     <t>I really enjoyed the entire experience. The room was clean and comfortable and the WiFi was strong. My wife and I will be back. The breakfast buffet was excellent. This is a great place for the cost and location. More</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r236563709-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -578,6 +635,9 @@
     <t>Several friends and I stayed here for our Spring Break after going to Six Flags. It is a very nice hotel, fairly close to the park, and good for the price. We'll definitely stay here again if we come back!More</t>
   </si>
   <si>
+    <t>673AlainL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r233124957-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -599,6 +659,9 @@
     <t>I just came back from staying at this hotel for the weekend and it was great. We went to see the football game so the location was perfect, not too far from the stadium, close to the airport and near good shopping malls. One of the things I was grateful for was breakfast, it overpassed our expectations. Rooms are nice, big and cozy, with great sleeping quality. Front desk staff are very nice and helpful.More</t>
   </si>
   <si>
+    <t>caal49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r220898709-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -617,6 +680,9 @@
     <t>Our baseball team stayed here during the little league World Series.    The hotel is a little older but clean.  The hotel had a good breakfast and offered complimentary bottle water and cookies in the lobby. Nice outdoor pool.  The hotel only had one elevator and it was broken the last three days of our stay.  Also, the hotel used a very strong air freshener that bothered our allergies.More</t>
   </si>
   <si>
+    <t>Jerry E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r210339167-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -638,6 +704,9 @@
     <t>An excellent stay! I was here for almost a week, and it was a very nice place to come home to every night. The rates are reasonable, and the rooms are clean and spacious.  The people are friendly and helpful.  Their daily breakfast has a nice variety of hot and cold foods, and a good assortment of breakfast beverages. There's free beverages and snacks throughout the day too. There's plenty of parking, with a small indoor gym and an outdoor pool. The hotel itself is far enough away from Dallas that you aren't inundated with the noise of the big city, but it is still close enough that going into the city isn't an inconvenient drive.  The hotel is located within walking distance of several eateries (both casual and dine-in).  There are some shops, big chain stores, and even movie theaters that are quick walk away.All things considered, there's nothing that I can think of that would prevent me from staying here again!More</t>
   </si>
   <si>
+    <t>Steve B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r207726490-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -656,6 +725,9 @@
     <t>The Holiday Inn Express Grand Prairie Texas is conveniently located off of I20 with easy access in and out. The hotel is clean and quiet. Rooms are good. The breakfast buffet is typical for a HI Express. Not bad but nothing to write home about. On the positive side the Manager's open house was a nice spiff giving away food and drinks. The only real negative was the exercise room in which one treadmill was broke while the other one was stuck at 4.5 degrees of incline. Overall, for the price it's a good value.More</t>
   </si>
   <si>
+    <t>dgeanetta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r205098638-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -677,6 +749,9 @@
     <t>I had been staying at a different hotel in the area and was just fed up and disgusted with them I tried the Holiday In  Express Grand Prairie and was pleasantly surprised! The hotel was clean, quiet and nicely furnished. It is close to shopping, movie theater, post office and numerous restaurants. The staff is friendly and attentive. Thanks, for some great stays. I will be using IHG hotels from now on.More</t>
   </si>
   <si>
+    <t>Creekguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r199556742-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -701,6 +776,9 @@
     <t>Stayed here while in the Dallas area for business. Nice friendly staff and a very comfortable and clean room. Comfortable beds and invigorating shower... this was a refreshing stay and I would stay here again. I like the little extras as well, cookies, flavored popcorn, bottled water and even a shoe shine machine. Everyone was pleasant and made me feel welcome. Lots of dining choices nearby (even within walking distance) as well as a movie theatre across the street. The one thing that kept me from rating it a 5 was the carpet in the room is kind of worn out, not a big deal but looks a little shabby. Wish I was staying here for a longer period... oh well, next time for sure!More</t>
   </si>
   <si>
+    <t>Susan D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r170016535-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -728,6 +806,9 @@
     <t>This hotel is close to I20, right at the exit. We enjoyed visiting Six flags &amp; rangers game, and then resting at the Holiday Inn Express was joy. The people working at the hotel are friendly and knowledgeable. The morning breakfast was great. At end of everyday we enjoyed the pool and the soothing hot spa. Everything is amazing at the hotel.More</t>
   </si>
   <si>
+    <t>Chan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r167505698-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -746,6 +827,9 @@
     <t>The folks are very freindly, the breakfast was great. The rooms were great, I enjoyed the large TV and the comfy bed. Lawanda and the staff made this a special trip for us. We will be back to stay at this hotel.More</t>
   </si>
   <si>
+    <t>Sandra S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r167055551-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -764,6 +848,9 @@
     <t>This hotel has all the amenties, everything in perfect condtion. The best is the friendly staff. The rooms are great, large TV and the best beds. The breakfast was much more than I expected. Great job to the GM.More</t>
   </si>
   <si>
+    <t>SuziQinTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r165588284-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -788,6 +875,9 @@
     <t>Nice clean hotel in a convenient location.  There are several restaurants and shops within walking distance.  I called ahead and asked for an early check-in and such was granted.  Nice amenities and quiet hotel which was exactly what I wanted at the time.More</t>
   </si>
   <si>
+    <t>Ken M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r162778825-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -806,6 +896,9 @@
     <t>This was the first time staying here because where I usually stay was full. The staff is very friendly. Nice pool area out front. The place is quiet and clean. My kind of place. There is a couple great places to eat within walking distance. Plus movie theater across the street. More</t>
   </si>
   <si>
+    <t>Kathleen H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r161515561-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -824,6 +917,9 @@
     <t>Receptionist was a jewel, all day free coffee, water, and cookies. Room was spacious, comfy beds, nice counter space in bath. Xxxxxxxxx xxxxxxxxxxx xxxxxxxxxx xxxxxxxxxx xxxxxxxxxx xxxxxxxxxx xxxxxxxxxxx xxxxxxxxxx More</t>
   </si>
   <si>
+    <t>Will577</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r149354637-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -848,6 +944,9 @@
     <t>Rooms were clean and bathroom was clean.  Comfortable bed, breakfast was good, same as all the other holiday inns.  Had water bottles in room each day.  I would stay here again, no real complaints.  Internet was fast.More</t>
   </si>
   <si>
+    <t>SRN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r146182293-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -869,6 +968,9 @@
     <t>Very nice hotel next to multiple restaurants within walking distance (exp. Chili's, Golden Coral, fast foods).  Starbucks was across the street along with Wal Mart and small strip mall of stores.Hotel was very clean, nice staff and good breakfast.More</t>
   </si>
   <si>
+    <t>justicelive</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r144564400-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -890,6 +992,9 @@
     <t>Room was as expected: very clean and comfortable, although the A/C was loud.  Parking lot was convenient.  Exercise facilities are substandard.  Breakfast room is relatively cramped, but selection was decent (except for coffee - which was terrible).  The lobby's decor makes it look cluttered.More</t>
   </si>
   <si>
+    <t>Larry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r139700900-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -917,6 +1022,9 @@
     <t>My wife and I stayed there for the Alabama vs Michigam football game at Cowboy's stadium.  We were so pleased with our stay from the moment we walked in the door.  The rooms were very clean and the large flat screen TV with a very large choice on cable.  Our morning breakfast in the lobby was over the top and maintained by a very friendly and polite employee.You are in walking distance of some great resturants, IHOP next door and a resturant named Cheddar's that we fell in love with next to it. There is also a shopping center which filled all of our needs while there. I would not hesitate to stay there on my next visit to the Dallas area.More</t>
   </si>
   <si>
+    <t>animalhOuse3_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r139698803-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -935,6 +1043,9 @@
     <t>Nice hotel but management will overcharge for any damages done and will not provide a receipt even when requested numerous times or respond to any other concerns that have submitted in writing.  I accidentally spilled some nail polish on the carpet and notifed the front desk immediately on a Friday evening.  I also spoke to the Manager LaWanda first thing Saturday morning.  I was up front with them and was more than willing to pay for the damages (assuming they were reasonable).  I was not notified until about an hour after we had checked out on a Sunday afternoon  on our way home that management was charging my credit card $500 and would then credit me the difference once they knew exactly how much the charges were.  I was not given any other option of payment even though I had tried to take care of this since Friday.  I was 8 months pregnant at the time and luckily we did not have any kind of medical emergency or car trouble on our way back home as this ended up tying up any kind of emergency funds we had left on that credit card.  They did end up crediting me $250 several days later  but have ignored my numerous requests for a copy of the invoice from the carpet company showing the cost of the repairs.  Several quotes I received from other carpet companies in my hometown were much cheaper.   I...Nice hotel but management will overcharge for any damages done and will not provide a receipt even when requested numerous times or respond to any other concerns that have submitted in writing.  I accidentally spilled some nail polish on the carpet and notifed the front desk immediately on a Friday evening.  I also spoke to the Manager LaWanda first thing Saturday morning.  I was up front with them and was more than willing to pay for the damages (assuming they were reasonable).  I was not notified until about an hour after we had checked out on a Sunday afternoon  on our way home that management was charging my credit card $500 and would then credit me the difference once they knew exactly how much the charges were.  I was not given any other option of payment even though I had tried to take care of this since Friday.  I was 8 months pregnant at the time and luckily we did not have any kind of medical emergency or car trouble on our way back home as this ended up tying up any kind of emergency funds we had left on that credit card.  They did end up crediting me $250 several days later  but have ignored my numerous requests for a copy of the invoice from the carpet company showing the cost of the repairs.  Several quotes I received from other carpet companies in my hometown were much cheaper.   I  sent 2 separate emails to the General Manager Peter Dasai and my last email was also ignored.  Got an extremely rude customer service rep when calling the corporate office and they failed to resolve my request and referred me back to the hotel itself.  Will not be using the Holiday Inn hotel chain in the future since the Corporate office does not even hold the individual hotels accountable.More</t>
   </si>
   <si>
+    <t>Adam W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r139414131-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -956,6 +1067,9 @@
     <t>I really liked the location since my trip was dual purpose; business in Dallas and recreation in Arlington.  My family met me here since I had a couple days travel and we went to Six Flags during the day.  We always get excited about eating at Cheddars so it was nice that the restaurant was perched near the hotel.  The hotel was clean and well maintained.  I did not care for the location of the pool, but we didn't use the pool.  The free breakfast was great especially the hot cinnamon rolls.  This is a nice hotel forMore</t>
   </si>
   <si>
+    <t>DeborahO228</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r135902767-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -977,6 +1091,9 @@
     <t>We made these reservations back in April when we arrived  5/19/12 with the group Run for the Wall, we were very pleased with the hotel and our room. The front desk personel was friendly and well trained, got us thru the checking in fast and smooth. I don't know what the regular rate was but we got a military rate   :)   We have stayed at several Holiday Inns and they have all been awesome.  I would recomend this one in TX. a big #10 and all of the others across the USA.More</t>
   </si>
   <si>
+    <t>TrainingPro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r135696742-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -995,6 +1112,9 @@
     <t>Like this place. Close to both DAllas and Ft Worth. Lots of places to eat in a short drive. Grocery store and theater within walking distance. Breakfast always plentiful. CLEAN hotel and nice people. Only downside is air fresheners used in rooms. Don't know what they are exactly, but sometimes room are 'over perfumed'.  I always stay here. Good value. More</t>
   </si>
   <si>
+    <t>visitor081</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r135542226-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1013,6 +1133,9 @@
     <t>I stayed in this hotel mothers day weekend 2012. I choose this hotel from the great reviews listed and I was not disappointed.  My grandmother (age 90) loves Tyler Perry "Plays" and we traveled to Grand Prairie, TX to see the saturday night show at the Verizon Theater.  We live in lousiana, and my grammy does not travel, so I wanted to make sure that this mothers day was a rememerable one and indeed it was.  The front desk clerk were so attentive and patient with my granny, the room were clean and beds were comfortable.  My granny got a kick out of the TVs in the elevators.  Breakfast was good and fresh, the breakfast attended was so good, that we tipped her.  I cannot say enough about the generosity we received from all the hotel staff.  This was a 4 generational trip (my grandmother, my mom, myself and my daughter) and we will never forget this hotel.  I feel an addiction to it.  Oh, lastly, great location.More</t>
   </si>
   <si>
+    <t>AJK789</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r135085753-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1034,6 +1157,9 @@
     <t>Stayed here for 2 nights on a recent business trip. Everything about this property was above average. I arrived ealy in the day (11am) and asked if I could check-in.  The front desk clerk was very accommodating and called housekeeping to to see if a room was ready and sure enough it was. This small gesture of checking on this instead of a - no check-in isn't until later - carries alot of weight and indicates the importance of customer service at this property. The room itself was very clean and I had no complaints. The room included a coffee maker, small refrigerator and a small microwave. Housekeeping maintained it well.  The bathroom was also very clean.  The hotel also provided one evening appetizors and wince/beer for guests. The breakfast selection was good and the staff that maintained the areas was.  The hotel location is excellent with resteraunts and movie theaters within walking distance.  Overall a very good experience and I would recommend this hotel to anyone passing through the area.More</t>
   </si>
   <si>
+    <t>Gary C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r134631852-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1052,6 +1178,9 @@
     <t>Angie helped me book all five rooms and made sure we had everthing we needed during our 4 night stay.  Earl checked us in at different arrival times and helped familiarize our family with the facility.  Thanks LQ GP.  Gary CollinsMore</t>
   </si>
   <si>
+    <t>Ecpayne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r132087636-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1070,6 +1199,9 @@
     <t>The rooms were nice and the staff friendly, but thought the price was a bit high. More</t>
   </si>
   <si>
+    <t>Richard L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r130482775-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1224,9 @@
   </si>
   <si>
     <t>Stayed at HIEx for business trip. Wasn't expecting much but was pleasantly surprised. Staff extremely friendly, made me feel like I was only customer. Rooms clean, beds comfortable, NS, and quiet. Lots of amenities. Close to many attractions. Will stay here next trip to TX.More</t>
+  </si>
+  <si>
+    <t>cmclauss</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r128197125-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
@@ -1127,6 +1262,9 @@
 Oh, and there is a 16 theater movie theater also within walking distance -...I spent 5 nights at this hotel while on business.  Upon arrival I got a really nice goodie bag of snacks for being a priority club member - better than the usual.  The room was spotless, the bed very comfortable and the furnishings new.  (Carpet should be the next upgrade but I could totally live with it!)  The staff was so friendly and helpful from the front desk to the folks that man the morning breakfast.  Free waters in a cooler, cookies and on Wednesday night I had a beer as part of their happy hour.  I used the fitness center very morning.  I loved that they had wipes for wiping down the equipment, fresh towels and cold water. One of the best things about this hotel is the location.  Within walking distance is IHOP, a ribs place, Cheedars, a grocery store, Ton Mongolian Grill... and more.  within a mile radius, one could eat at a different place for nearly two weeks.  Here is the tricky thing:  If you put the address into your GPS, it will bring you to a plaza with the Holiday Inn nowhere in sight!  I had to ask someone at the grocery store where the hotel was.  If you are facing the grocery store, follow the road around to the right and it will be on your right, just past IHop.  Oh, and there is a 16 theater movie theater also within walking distance - right across the street.More</t>
   </si>
   <si>
+    <t>bphpsu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r126802406-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1154,6 +1292,9 @@
     <t>We really enjoyed our stay at the HIE during Spring Break.  The rooms are somewhat small (we had a standard double), but we were not in the room that much.  The hotel was clean, service was very friendly, and the morning breakfast was very good.  They also had two computers set up by the breakfast area and WiFi (great for the kid's IPADs.  The hotel was located centrally to Dallas and Fort Worth (we visited both cities during our stay).If you plan to stay, look for a coupon online through the Grand Prairie visitors center.  It was for $89/night (I am sure there are restrictions) We would stay again.More</t>
   </si>
   <si>
+    <t>WHISKEYTIM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r126303536-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1196,6 +1337,9 @@
     <t>I always try to stay here when going to western edge of Dallas. Staff is always friendly and happy to get extra pillows or towels if you want them. Breakfast is free, satisfying and quick. Grocery store is abt 100 yards away so with room refrig and microwave, you can stick to your diet or eat cheaply. Also has an IHOP, barbq, other rest, fast food places and Baskin &amp; Robbins very near too. (ok there goes your diet!). Walgreens close too. The hotel gives you a nice bag of goodiesif you're a Holiday Inn select club member filled with some healthy &amp; not as healthy snacks along with a bottle of water. There's a theater across the parking lot. Never had time to go, but sure would be convenient. Always great staff. I always stay here when I need to be in this area of town. Feels very safe too. More</t>
   </si>
   <si>
+    <t>Kawhona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r124231124-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1214,6 +1358,9 @@
     <t>The staff seems to care and I haven't had to wait for anything. I got a king suite and the room is plenty big and clean. It has a relatively new big screen but no HD content. The hotel is consistent with the brand.More</t>
   </si>
   <si>
+    <t>gg1213</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r122549758-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1241,6 +1388,9 @@
     <t>We needed an overnight stay and choose this hotel because of the location and the good reviews. Overall, most of my expectations were met. Upon arrival, check-in staff was nice and the process was easy. If you sign up to become a reward member with Holiday Inn (which is free), you earn points towards a free night and get a nice little goodie bag. The best part of the hotel was the free bottles of water. The room was clean, decor seemed dated but our stay was comfortable. The hot breakfast was good and consisted more than yogurt and granola bars. There was also cereal, pancakes, biscuits, sausage to name a few items. The location was great. We only 15 mins away from Cowboys Stadium, 20 mins from downtown Dallas, and the hotel was in a location with several restaurants and eateries. There were even a couple of movie theaters nearby, one within walking distance. All in all, my husband and I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>GJohnsonTulsa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r7707211-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1262,6 +1412,9 @@
     <t>We went to the Dallas area for a long weekend to see a concert at theNokia Theater in Grand Prairie. We chose this hotel because of the great reviews on this website. We were not disappointed! As a matter of fact the only negative thing I have to say is the water pressure wasn't that great (and that wasn't even that big of a deal)! We thoroughly enjoyed everything about this well-run hotel. It was quiet, clean, the employees were friendly and helpful and the location was great for us.  We did not make it to the breakfast, but I was glad to find a nice coffee bar available well after the breakfast had closed. The TV was in an armoire that was high enough to see from the bed and it swiveled. There was a small refrigerator and a microwave in our room.The bed was high off the ground and the mattress was thick and firm.There were six pillows in our VERY COMFORTABLE king size bed. The bathroom had granite countertops and the free high speed internet connection was nice. The outdoor pool was very clean (and very busy on the hot weekend we were there).All in all, I can't say enough good things about this hotel. For us, it compared to a Marriott resort we once stayed in with a much lower price tag!More</t>
   </si>
   <si>
+    <t>bandmom77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r5905207-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1278,6 +1431,9 @@
   </si>
   <si>
     <t>October 2006</t>
+  </si>
+  <si>
+    <t>Hoteltravaler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r5579884-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
@@ -1797,43 +1953,47 @@
       <c r="A2" t="n">
         <v>31508</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>12776</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1847,50 +2007,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31508</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155009</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1908,50 +2072,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31508</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155010</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1969,50 +2137,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31508</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155011</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2032,50 +2204,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31508</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155012</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2089,50 +2265,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31508</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>48923</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2146,50 +2326,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31508</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136765</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2209,50 +2393,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31508</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155013</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2272,41 +2460,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31508</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155014</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -2325,50 +2517,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31508</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>143283</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2384,56 +2580,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31508</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155015</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2445,56 +2645,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31508</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>87815</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2512,56 +2716,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31508</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155016</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2575,56 +2783,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="X14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31508</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>14428</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2642,56 +2854,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="X15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31508</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155017</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2703,56 +2919,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31508</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>91970</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2770,56 +2990,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="X17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31508</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>3813</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2835,47 +3059,51 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="X18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31508</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -2902,56 +3130,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="X19" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31508</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>8062</v>
+      </c>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2969,56 +3201,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31508</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155019</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3036,47 +3272,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31508</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155020</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -3093,56 +3333,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X22" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31508</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155021</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3154,56 +3398,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X23" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31508</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>9139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3215,56 +3463,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X24" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31508</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155022</v>
+      </c>
+      <c r="C25" t="s">
+        <v>235</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3286,56 +3538,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X25" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31508</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155023</v>
+      </c>
+      <c r="C26" t="s">
+        <v>243</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3357,56 +3613,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="X26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Y26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31508</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>357</v>
+      </c>
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3428,56 +3688,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="X27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="Y27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31508</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155024</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3499,56 +3763,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="X28" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="Y28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>31508</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>34139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3570,56 +3838,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="X29" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="Y29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>31508</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>155025</v>
+      </c>
+      <c r="C30" t="s">
+        <v>276</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="K30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3631,47 +3903,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="X30" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="Y30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>31508</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>9137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>285</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="J31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
@@ -3698,47 +3974,51 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="X31" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="Y31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31508</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>607</v>
+      </c>
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
@@ -3765,56 +4045,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="X32" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="Y32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31508</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155026</v>
+      </c>
+      <c r="C33" t="s">
+        <v>299</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3834,56 +4118,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="X33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="Y33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31508</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>155027</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="J34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3905,56 +4193,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="X34" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="Y34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>31508</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>155028</v>
+      </c>
+      <c r="C35" t="s">
+        <v>316</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="J35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3976,56 +4268,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="X35" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="Y35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>31508</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>23676</v>
+      </c>
+      <c r="C36" t="s">
+        <v>324</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="O36" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4037,56 +4333,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="X36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="Y36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>31508</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155029</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4108,56 +4408,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="X37" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="Y37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>31508</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>41399</v>
+      </c>
+      <c r="C38" t="s">
+        <v>341</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="J38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="K38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4179,56 +4483,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="X38" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="Y38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>31508</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155030</v>
+      </c>
+      <c r="C39" t="s">
+        <v>349</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="O39" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4250,47 +4558,51 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="X39" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="Y39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>31508</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>155031</v>
+      </c>
+      <c r="C40" t="s">
+        <v>357</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -4317,56 +4629,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="X40" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="Y40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>31508</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155032</v>
+      </c>
+      <c r="C41" t="s">
+        <v>364</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="J41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4388,56 +4704,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="X41" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>31508</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>155033</v>
+      </c>
+      <c r="C42" t="s">
+        <v>371</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="L42" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -4457,56 +4777,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="X42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="Y42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>31508</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>6371</v>
+      </c>
+      <c r="C43" t="s">
+        <v>379</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
+        <v>381</v>
+      </c>
+      <c r="J43" t="s">
+        <v>382</v>
+      </c>
+      <c r="K43" t="s">
+        <v>383</v>
+      </c>
+      <c r="L43" t="s">
+        <v>384</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
         <v>339</v>
       </c>
-      <c r="J43" t="s">
-        <v>340</v>
-      </c>
-      <c r="K43" t="s">
-        <v>341</v>
-      </c>
-      <c r="L43" t="s">
-        <v>342</v>
-      </c>
-      <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s">
-        <v>303</v>
-      </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4528,47 +4852,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="X43" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="Y43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>31508</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155034</v>
+      </c>
+      <c r="C44" t="s">
+        <v>386</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="J44" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="K44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
@@ -4595,47 +4923,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="X44" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="Y44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>31508</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>9048</v>
+      </c>
+      <c r="C45" t="s">
+        <v>393</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="J45" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="K45" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -4662,56 +4994,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="X45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="Y45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>31508</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>155035</v>
+      </c>
+      <c r="C46" t="s">
+        <v>402</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="J46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="K46" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="L46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4733,56 +5069,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="X46" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="Y46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>31508</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>9299</v>
+      </c>
+      <c r="C47" t="s">
+        <v>412</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="J47" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="K47" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="L47" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -4798,56 +5138,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="X47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="Y47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>31508</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155036</v>
+      </c>
+      <c r="C48" t="s">
+        <v>422</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="J48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="K48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="L48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4869,47 +5213,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="X48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="Y48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>31508</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155030</v>
+      </c>
+      <c r="C49" t="s">
+        <v>357</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="J49" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="K49" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="L49" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -4936,47 +5284,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="X49" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="Y49" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>31508</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155037</v>
+      </c>
+      <c r="C50" t="s">
+        <v>437</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="J50" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="K50" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="L50" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
@@ -5003,56 +5355,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="X50" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="Y50" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>31508</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>17835</v>
+      </c>
+      <c r="C51" t="s">
+        <v>444</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="J51" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="K51" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="L51" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="O51" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5074,56 +5430,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="X51" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="Y51" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>31508</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155038</v>
+      </c>
+      <c r="C52" t="s">
+        <v>454</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="J52" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="K52" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="L52" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="O52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5147,50 +5507,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>31508</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155039</v>
+      </c>
+      <c r="C53" t="s">
+        <v>462</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="J53" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="K53" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="L53" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5214,50 +5578,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>31508</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155040</v>
+      </c>
+      <c r="C54" t="s">
+        <v>469</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="J54" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="K54" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="L54" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5281,7 +5649,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_343.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_343.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="718">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,144 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Charles C</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r592089607-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>55922</t>
+  </si>
+  <si>
+    <t>589331</t>
+  </si>
+  <si>
+    <t>592089607</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>Nice clean, quiet, comfortable room. . Good sized bathroom.  Staff was friendly, efficient. Free parking in a well-lit lot. Great location with a number of restaurants, both fast-food and sit-down within walking distance.  Movie theater next door. Hot breakfast included had plenty of choices and was a great way to start the day.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r550490353-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>550490353</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Convenient Location - Next to Cinemark - IHOP - Cheddars - Spring Creek BBQ</t>
+  </si>
+  <si>
+    <t>Excellent rating because of the location. Park your car at the hotel at no charge. Walk to IHOP, Spring Creek BBQ or Cheddars (all easy one to three minute walk) or take in a movie with recliner style loungers at the Cinemark(also one minute walk)...I also noticed a Subway, Panera Bread and lots of other eateries one could walk to or drive a car. There is also an Albertsons grocery store within a two minute walk if you want to stock up on water and other supplies instead of eating out.The hotel has been remodeled since our last stay. New paint and HUGE shower and plenty of space on the bathroom counter to put your toiletries. Blow dryer provided and a phone in the bathroom as well. We had the king suite-came with microwave and mini refrigerator and lots of coffee. Coffee/Tea free 24/7 in the lobby of the hotel. Breakfast is complimentary with your room. Plenty of options-pancakes, eggs, bacon, sausage, bagels, toast, etc...room was impeccable. There is a washer and dryer, for a fee, on the premises on the first floor. I did not check the price. Complimentary computers(two of them) in the lobby for internet searches(free of charge) and a printer. No gift shop but right next to the check in desk there are snacks for purchase that are reasonably priced( ice cream, a few frozen dinners, chips, crackers)etc...Staff was very pleasant and honored out "do not...Excellent rating because of the location. Park your car at the hotel at no charge. Walk to IHOP, Spring Creek BBQ or Cheddars (all easy one to three minute walk) or take in a movie with recliner style loungers at the Cinemark(also one minute walk)...I also noticed a Subway, Panera Bread and lots of other eateries one could walk to or drive a car. There is also an Albertsons grocery store within a two minute walk if you want to stock up on water and other supplies instead of eating out.The hotel has been remodeled since our last stay. New paint and HUGE shower and plenty of space on the bathroom counter to put your toiletries. Blow dryer provided and a phone in the bathroom as well. We had the king suite-came with microwave and mini refrigerator and lots of coffee. Coffee/Tea free 24/7 in the lobby of the hotel. Breakfast is complimentary with your room. Plenty of options-pancakes, eggs, bacon, sausage, bagels, toast, etc...room was impeccable. There is a washer and dryer, for a fee, on the premises on the first floor. I did not check the price. Complimentary computers(two of them) in the lobby for internet searches(free of charge) and a printer. No gift shop but right next to the check in desk there are snacks for purchase that are reasonably priced( ice cream, a few frozen dinners, chips, crackers)etc...Staff was very pleasant and honored out "do not disturb" sign for the day. Slipped a memo under our door around 2 p.m. to say they had noticed the sign and did not want to disturb but had towels and toiletries at the front desk if we needed. Parking lot is lit up really nice. New window coverings had full coverage to black out any light. No complaints and will definitely stay here again on our next visit....almost forgot to say-right next to the Interstate 20 which is only a 20 minute drive to AT&amp;T Stadium and the same drive time to a really nice place in Arlington to eat at Saltgrass, In N out Burger or a number of other eateries. Can't say enough good things about this. Location is everything! Oh yes, and there is a QT (quick trip) just on the other side of Interstate 20 for filling up your car with gas.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Excellent rating because of the location. Park your car at the hotel at no charge. Walk to IHOP, Spring Creek BBQ or Cheddars (all easy one to three minute walk) or take in a movie with recliner style loungers at the Cinemark(also one minute walk)...I also noticed a Subway, Panera Bread and lots of other eateries one could walk to or drive a car. There is also an Albertsons grocery store within a two minute walk if you want to stock up on water and other supplies instead of eating out.The hotel has been remodeled since our last stay. New paint and HUGE shower and plenty of space on the bathroom counter to put your toiletries. Blow dryer provided and a phone in the bathroom as well. We had the king suite-came with microwave and mini refrigerator and lots of coffee. Coffee/Tea free 24/7 in the lobby of the hotel. Breakfast is complimentary with your room. Plenty of options-pancakes, eggs, bacon, sausage, bagels, toast, etc...room was impeccable. There is a washer and dryer, for a fee, on the premises on the first floor. I did not check the price. Complimentary computers(two of them) in the lobby for internet searches(free of charge) and a printer. No gift shop but right next to the check in desk there are snacks for purchase that are reasonably priced( ice cream, a few frozen dinners, chips, crackers)etc...Staff was very pleasant and honored out "do not...Excellent rating because of the location. Park your car at the hotel at no charge. Walk to IHOP, Spring Creek BBQ or Cheddars (all easy one to three minute walk) or take in a movie with recliner style loungers at the Cinemark(also one minute walk)...I also noticed a Subway, Panera Bread and lots of other eateries one could walk to or drive a car. There is also an Albertsons grocery store within a two minute walk if you want to stock up on water and other supplies instead of eating out.The hotel has been remodeled since our last stay. New paint and HUGE shower and plenty of space on the bathroom counter to put your toiletries. Blow dryer provided and a phone in the bathroom as well. We had the king suite-came with microwave and mini refrigerator and lots of coffee. Coffee/Tea free 24/7 in the lobby of the hotel. Breakfast is complimentary with your room. Plenty of options-pancakes, eggs, bacon, sausage, bagels, toast, etc...room was impeccable. There is a washer and dryer, for a fee, on the premises on the first floor. I did not check the price. Complimentary computers(two of them) in the lobby for internet searches(free of charge) and a printer. No gift shop but right next to the check in desk there are snacks for purchase that are reasonably priced( ice cream, a few frozen dinners, chips, crackers)etc...Staff was very pleasant and honored out "do not disturb" sign for the day. Slipped a memo under our door around 2 p.m. to say they had noticed the sign and did not want to disturb but had towels and toiletries at the front desk if we needed. Parking lot is lit up really nice. New window coverings had full coverage to black out any light. No complaints and will definitely stay here again on our next visit....almost forgot to say-right next to the Interstate 20 which is only a 20 minute drive to AT&amp;T Stadium and the same drive time to a really nice place in Arlington to eat at Saltgrass, In N out Burger or a number of other eateries. Can't say enough good things about this. Location is everything! Oh yes, and there is a QT (quick trip) just on the other side of Interstate 20 for filling up your car with gas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r583603866-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>583603866</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Excellent Location and Stay</t>
+  </si>
+  <si>
+    <t>We're fairly local, but had an early morning photoshoot in the Arlington area and wanted to be on top of it and have a bit of a staycation. After the photoshoot we went to Six Flags. The location of this Holiday Inn Express is incomparable, even among other area hotels. There is a movie theater, restaurants, ice cream, groceries, and coffee well within walking distance, and malls and outlet malls are a very short drive. Texas Rangers, Dallas Cowboys, Six Flags/Hawaiian Falls visits would be very easy to get to from here.The staff were friendly, the cleanliness was good, the noise level was low, the breakfast was good, the outdoor pool is nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>We're fairly local, but had an early morning photoshoot in the Arlington area and wanted to be on top of it and have a bit of a staycation. After the photoshoot we went to Six Flags. The location of this Holiday Inn Express is incomparable, even among other area hotels. There is a movie theater, restaurants, ice cream, groceries, and coffee well within walking distance, and malls and outlet malls are a very short drive. Texas Rangers, Dallas Cowboys, Six Flags/Hawaiian Falls visits would be very easy to get to from here.The staff were friendly, the cleanliness was good, the noise level was low, the breakfast was good, the outdoor pool is nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r541984270-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>541984270</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Vehicle Processing Center (VPC)</t>
+  </si>
+  <si>
+    <t>Nice hotel for one night before shipping a vehicle overseas.  10 min from Dallas VPC.  Hotel room was perfect for a quiet night.  Walking distance to restaurants and a movie theater (practically connecting parking lots).  This is the right hotel if you are coming from out of town for shipping a vehicle.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r540810127-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>540810127</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great cute hotel, near lots of restaurants around and shopping centers. The best breakfast in any hotel I’ve stayed at. Cinnamon rolls, big muffins like double chocolate chip, sausages, bacon, pancakes and more! Rooms were homey feeling very spacious and inviting. Bathroom was bright and white, shower was a walk in but bad thing is, is the water pressure is horrible both in shower and sink. I’d recommend this hotel who wants to be by restaurants, movie theaters and much more! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r539567686-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>539567686</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Dont stay!! You will regret the $200 you spent and there is other hotels in same location</t>
+  </si>
+  <si>
+    <t>Gave me a king room to share with my 17 yr old son and i had reserved a double suite, when i let them know that it wasn't right and that we would need 2 beds they said they only had one room left and it was a king also.  Tammy the desk clerk said that i got the room that i had reserved and if i had needed a double that i should have asked for one and made sure that is what i reserved.  By 9:30 i finally contacted my husband and got him to send me our room confirmation clearly stating a double room.  She finally FOUND us a double and got us in around 9;45 and said that i had made 2 reservations. REALLY???? On top of that they had a terrible sewer smell and the desk clerk TAMMY was telling guest that it was Grand Prairie's sewer system, but the smell was not anywhere else or even in the parking lot.  WE get into our room and the shower didn't work and the tub would not drain so you had to stand in your own dirty water to try and shower. IT WAS A HORRIBLE EXPERIENCE.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Grand Prairie I-20, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Gave me a king room to share with my 17 yr old son and i had reserved a double suite, when i let them know that it wasn't right and that we would need 2 beds they said they only had one room left and it was a king also.  Tammy the desk clerk said that i got the room that i had reserved and if i had needed a double that i should have asked for one and made sure that is what i reserved.  By 9:30 i finally contacted my husband and got him to send me our room confirmation clearly stating a double room.  She finally FOUND us a double and got us in around 9;45 and said that i had made 2 reservations. REALLY???? On top of that they had a terrible sewer smell and the desk clerk TAMMY was telling guest that it was Grand Prairie's sewer system, but the smell was not anywhere else or even in the parking lot.  WE get into our room and the shower didn't work and the tub would not drain so you had to stand in your own dirty water to try and shower. IT WAS A HORRIBLE EXPERIENCE.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r531542462-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
-    <t>55922</t>
-  </si>
-  <si>
-    <t>589331</t>
-  </si>
-  <si>
     <t>531542462</t>
   </si>
   <si>
@@ -180,12 +303,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Rjmathers_13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r521248611-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -207,9 +324,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Daddie-Ohh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r489571172-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -231,9 +345,6 @@
     <t>My son and I stayed at the Grand Prairie HIE May 28th prior to attending the DFW National Cemetery Memorial Day Celebration. We were met by a pleasant receptionist who greeted me and then personally greeted my 15 year old son (nice). It was apparent from the moment we entered the hotel that this place was well kept.  The entrance area was spotless.  Fresh fruit available (that actually looked appetizing) in a nice clean bowl.  We stayed in a double queen suite; your usual HIE room but impeccably clean. Absolutely no issues, comfortable clean beds. We enjoyed the regular HIE breakfast fare but noted that the fruit, bagels, muffins were fresh!! The next morning, the front desk staff let us leave our things in the room until after the Memorial Day Ceremony. We didn't return until sometime between noon and 1:00 PM but they had no problem and even asked how we enjoyed the ceremony.  You simply can't ask for more from an HIE stay.More</t>
   </si>
   <si>
-    <t>mikep1022</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r479325065-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -252,9 +363,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>jenncarvajal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r467652278-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -273,7 +381,252 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>Robert  J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r461826861-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>461826861</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romantic Get-Away! </t>
+  </si>
+  <si>
+    <t>Newly remodeled hotel. They were still painting the rooms. Which I found out at checkout. The Hotel told me it was just remodeled upon booking. Room was clean. We had a jacuzzi suite with romantic package. Free wifi as a rewards member and Breakfast was holiday inn standard. Ask at check in if you need gluten free for breakfast. They helped us with this. Only negative was the room wasn't done with the remodel when stayed. Room was clean just needed painted. You could see what still needed done. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Grand Prairie I-20, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Newly remodeled hotel. They were still painting the rooms. Which I found out at checkout. The Hotel told me it was just remodeled upon booking. Room was clean. We had a jacuzzi suite with romantic package. Free wifi as a rewards member and Breakfast was holiday inn standard. Ask at check in if you need gluten free for breakfast. They helped us with this. Only negative was the room wasn't done with the remodel when stayed. Room was clean just needed painted. You could see what still needed done. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r461603625-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>461603625</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Smells Like a Portapotty</t>
+  </si>
+  <si>
+    <t>This place smells like a portapotty on Steroids.  Smells Awful. Manager said to just live with it because all of Grand Prarie smells like this.  Manager could use an attitude adjustment and a class on customer service.  If all of Grand Prarie smelled like this, I would not be here.  I have never smelt a hotel such as malodious as this one.  Terrible!  Absolutely Terrible!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>This place smells like a portapotty on Steroids.  Smells Awful. Manager said to just live with it because all of Grand Prarie smells like this.  Manager could use an attitude adjustment and a class on customer service.  If all of Grand Prarie smelled like this, I would not be here.  I have never smelt a hotel such as malodious as this one.  Terrible!  Absolutely Terrible!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r459296876-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>459296876</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>This was a nice clean HIE. Staff was great. Breakfast was good with normal options.</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at this HIE. Staff was very friendly. Breakfast was good with the had the normal selections. They served bacon so that is always a plus! Rooms were very clean. Location is close to many places to eat. The only issue was when entering the HIE it smelled like 'butt'. Had a sewage smell in the lobby but not in the rooms. Not sure what is was but it got our attention and immediately stated that if the rooms smell like this we will not be staying. Our stay was great otherwise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r444249554-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>444249554</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Remodeling : Gym Closed : Good Customer Service : Nice Rooms</t>
+  </si>
+  <si>
+    <t>I checked into this hotel for one night while in the area on business. The hotel appears to be going through some remodeling. 
+While my room was nice and fresh, I went downstairs to get my workout in and the gym was closed. I understand that they need to remodel, and do appreciate them keeping the gym fresh. That being said this was going to be the one night this week that I had time to get a workout in. I went down to the front desk, and they did not have any alternate facility available. I asked them if I could check out with no charge, and they kindly allowed me to do so. I ended up moving to another property. 
+Overall, this hotel is in a nice location with lots of shopping and dining nearby. I would have preferred to stay here overnight rather than checking out, but they did treat me well so I am happy to give them a good review. 
+They welcomed me as an IHG Platinum Rewards member, and asked if I wanted my bonus points or amenity bag. (always the points!) They had bottled water and several types of cookies available at the front desk, which is a nice touch. 
+This hotel feels modern, fresh, and welcoming. The outdoor pool, was about what is expected for a limited service hotel. 
+The hotel is set back from the highway, so the room seemed quiet....I checked into this hotel for one night while in the area on business. The hotel appears to be going through some remodeling. While my room was nice and fresh, I went downstairs to get my workout in and the gym was closed. I understand that they need to remodel, and do appreciate them keeping the gym fresh. That being said this was going to be the one night this week that I had time to get a workout in. I went down to the front desk, and they did not have any alternate facility available. I asked them if I could check out with no charge, and they kindly allowed me to do so. I ended up moving to another property. Overall, this hotel is in a nice location with lots of shopping and dining nearby. I would have preferred to stay here overnight rather than checking out, but they did treat me well so I am happy to give them a good review. They welcomed me as an IHG Platinum Rewards member, and asked if I wanted my bonus points or amenity bag. (always the points!) They had bottled water and several types of cookies available at the front desk, which is a nice touch. This hotel feels modern, fresh, and welcoming. The outdoor pool, was about what is expected for a limited service hotel. The hotel is set back from the highway, so the room seemed quiet. I would give this hotel another try once their remodeling is done. That being said, I wish they would have posted the fact that the gym is closed either on their website or at least at the front desk on check in. It could have saved me quite a bit of time.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Grand Prairie I-20, responded to this reviewResponded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>I checked into this hotel for one night while in the area on business. The hotel appears to be going through some remodeling. 
+While my room was nice and fresh, I went downstairs to get my workout in and the gym was closed. I understand that they need to remodel, and do appreciate them keeping the gym fresh. That being said this was going to be the one night this week that I had time to get a workout in. I went down to the front desk, and they did not have any alternate facility available. I asked them if I could check out with no charge, and they kindly allowed me to do so. I ended up moving to another property. 
+Overall, this hotel is in a nice location with lots of shopping and dining nearby. I would have preferred to stay here overnight rather than checking out, but they did treat me well so I am happy to give them a good review. 
+They welcomed me as an IHG Platinum Rewards member, and asked if I wanted my bonus points or amenity bag. (always the points!) They had bottled water and several types of cookies available at the front desk, which is a nice touch. 
+This hotel feels modern, fresh, and welcoming. The outdoor pool, was about what is expected for a limited service hotel. 
+The hotel is set back from the highway, so the room seemed quiet....I checked into this hotel for one night while in the area on business. The hotel appears to be going through some remodeling. While my room was nice and fresh, I went downstairs to get my workout in and the gym was closed. I understand that they need to remodel, and do appreciate them keeping the gym fresh. That being said this was going to be the one night this week that I had time to get a workout in. I went down to the front desk, and they did not have any alternate facility available. I asked them if I could check out with no charge, and they kindly allowed me to do so. I ended up moving to another property. Overall, this hotel is in a nice location with lots of shopping and dining nearby. I would have preferred to stay here overnight rather than checking out, but they did treat me well so I am happy to give them a good review. They welcomed me as an IHG Platinum Rewards member, and asked if I wanted my bonus points or amenity bag. (always the points!) They had bottled water and several types of cookies available at the front desk, which is a nice touch. This hotel feels modern, fresh, and welcoming. The outdoor pool, was about what is expected for a limited service hotel. The hotel is set back from the highway, so the room seemed quiet. I would give this hotel another try once their remodeling is done. That being said, I wish they would have posted the fact that the gym is closed either on their website or at least at the front desk on check in. It could have saved me quite a bit of time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r418361034-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>418361034</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Staff is so nice!</t>
+  </si>
+  <si>
+    <t>Have stayed here multiple times. The hotel is getting a fresh face lift. Was under construction but still a positive experience. Room was very clean! Bathroom clean. The king bed was comfortable. I really appreciate the little things; like having a cooler with waters that we could help ourselves in the Lobby, and I appreciate the bowl of fresh fruit as an option to the fresh baked cookies. But most of all I think the staff is so nice and helpful from when I first checked in to when I checked out. I was not the easiest guest when checking in. I was Tired and crabby but the staff remained friendly, helpful, and patient. I locked myself out of my room the first night there and the young man at the front desk could not have been nicer. The work out facility was good and all the equipment was working properly, room clean, all sizes of weights to choose from. Another plus is location close to I-20 and very convenient if you are visiting your Dallas Baptist University student. Will definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Have stayed here multiple times. The hotel is getting a fresh face lift. Was under construction but still a positive experience. Room was very clean! Bathroom clean. The king bed was comfortable. I really appreciate the little things; like having a cooler with waters that we could help ourselves in the Lobby, and I appreciate the bowl of fresh fruit as an option to the fresh baked cookies. But most of all I think the staff is so nice and helpful from when I first checked in to when I checked out. I was not the easiest guest when checking in. I was Tired and crabby but the staff remained friendly, helpful, and patient. I locked myself out of my room the first night there and the young man at the front desk could not have been nicer. The work out facility was good and all the equipment was working properly, room clean, all sizes of weights to choose from. Another plus is location close to I-20 and very convenient if you are visiting your Dallas Baptist University student. Will definitely stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r417303508-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>417303508</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Deceptive Hotel</t>
+  </si>
+  <si>
+    <t>I'm really not sure how there can be so many good reviews. I just checked in on a business trip and the supposed Executive King Room looks nothing like the pictures on their website - not even close. It is much more like a Super 8 room. Very small room with little amenities. Plus the hotel is under major construction but no where in the reservation process does it indicate that nor would they let me cancel once I arrived.  I am adding photos so you can judge for yourself.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Grand Prairie I-20, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>I'm really not sure how there can be so many good reviews. I just checked in on a business trip and the supposed Executive King Room looks nothing like the pictures on their website - not even close. It is much more like a Super 8 room. Very small room with little amenities. Plus the hotel is under major construction but no where in the reservation process does it indicate that nor would they let me cancel once I arrived.  I am adding photos so you can judge for yourself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r402595933-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>402595933</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Significantly than average - location (and shower) make it my choice when visiting here.</t>
+  </si>
+  <si>
+    <t>I have visited GP several times for business.  I have always stayed at this hotel.
+THE GOOD:
+- Walking distance to several restaurants, grocery store, and movie theater.
+- Great acoustical separation from neighbor guest rooms
+- Great shower heads.  Great water pressure.  A good shower often makes up for other shortcomings
+-  TV Remote is factory remote, not Hotel-Network remote
+- Fast WiFi
+- Free freshly baked cookies every night
+- Beer/Wine/fingerfood reception on Tuesdays and Wednesdays (the beer is the Bud-Light swill variety, but you can't argue free beer)
+- In room Keurig coffee machine
+- Better than many breakfast options - Biscuits &amp; Gravy every morning.
+- Incredibly attentive morning breakfast-area staff (this has ALWAYS been the case) -- the ladies here really shine.
+- Nightstand -level power outlets on either side of king bed -- NICE
+- Tons of towels provided
+- No pandering signs about "We're trying to save water, hang up your towels."  (Guests see right thru this ruse - it's to save money, not water)
+THE FRUSTRATING:
+- Paper coffee cups
+- Plastic in-room water cups
+- Styrofoam plates and plastic utensils.
+- A room they call a suite is NOT a suite.  It's a deluxe room.  To me, a "suite" is separate rooms.  Two 2' deep pony walls don't make it a suite, folks.  
+All in all, this is a fantastic place with a couple of warts.  I realize that metal utensils...I have visited GP several times for business.  I have always stayed at this hotel.THE GOOD:- Walking distance to several restaurants, grocery store, and movie theater.- Great acoustical separation from neighbor guest rooms- Great shower heads.  Great water pressure.  A good shower often makes up for other shortcomings-  TV Remote is factory remote, not Hotel-Network remote- Fast WiFi- Free freshly baked cookies every night- Beer/Wine/fingerfood reception on Tuesdays and Wednesdays (the beer is the Bud-Light swill variety, but you can't argue free beer)- In room Keurig coffee machine- Better than many breakfast options - Biscuits &amp; Gravy every morning.- Incredibly attentive morning breakfast-area staff (this has ALWAYS been the case) -- the ladies here really shine.- Nightstand -level power outlets on either side of king bed -- NICE- Tons of towels provided- No pandering signs about "We're trying to save water, hang up your towels."  (Guests see right thru this ruse - it's to save money, not water)THE FRUSTRATING:- Paper coffee cups- Plastic in-room water cups- Styrofoam plates and plastic utensils.- A room they call a suite is NOT a suite.  It's a deluxe room.  To me, a "suite" is separate rooms.  Two 2' deep pony walls don't make it a suite, folks.  All in all, this is a fantastic place with a couple of warts.  I realize that metal utensils and real glasses and mugs cost money, but plastic and Styrofoam are terrible.Whenever I visit, part of my arrival involves stopping at Family Dollar about a mile away to spend $4 on a coffee mug, a glass, and metal utensils.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I have visited GP several times for business.  I have always stayed at this hotel.
+THE GOOD:
+- Walking distance to several restaurants, grocery store, and movie theater.
+- Great acoustical separation from neighbor guest rooms
+- Great shower heads.  Great water pressure.  A good shower often makes up for other shortcomings
+-  TV Remote is factory remote, not Hotel-Network remote
+- Fast WiFi
+- Free freshly baked cookies every night
+- Beer/Wine/fingerfood reception on Tuesdays and Wednesdays (the beer is the Bud-Light swill variety, but you can't argue free beer)
+- In room Keurig coffee machine
+- Better than many breakfast options - Biscuits &amp; Gravy every morning.
+- Incredibly attentive morning breakfast-area staff (this has ALWAYS been the case) -- the ladies here really shine.
+- Nightstand -level power outlets on either side of king bed -- NICE
+- Tons of towels provided
+- No pandering signs about "We're trying to save water, hang up your towels."  (Guests see right thru this ruse - it's to save money, not water)
+THE FRUSTRATING:
+- Paper coffee cups
+- Plastic in-room water cups
+- Styrofoam plates and plastic utensils.
+- A room they call a suite is NOT a suite.  It's a deluxe room.  To me, a "suite" is separate rooms.  Two 2' deep pony walls don't make it a suite, folks.  
+All in all, this is a fantastic place with a couple of warts.  I realize that metal utensils...I have visited GP several times for business.  I have always stayed at this hotel.THE GOOD:- Walking distance to several restaurants, grocery store, and movie theater.- Great acoustical separation from neighbor guest rooms- Great shower heads.  Great water pressure.  A good shower often makes up for other shortcomings-  TV Remote is factory remote, not Hotel-Network remote- Fast WiFi- Free freshly baked cookies every night- Beer/Wine/fingerfood reception on Tuesdays and Wednesdays (the beer is the Bud-Light swill variety, but you can't argue free beer)- In room Keurig coffee machine- Better than many breakfast options - Biscuits &amp; Gravy every morning.- Incredibly attentive morning breakfast-area staff (this has ALWAYS been the case) -- the ladies here really shine.- Nightstand -level power outlets on either side of king bed -- NICE- Tons of towels provided- No pandering signs about "We're trying to save water, hang up your towels."  (Guests see right thru this ruse - it's to save money, not water)THE FRUSTRATING:- Paper coffee cups- Plastic in-room water cups- Styrofoam plates and plastic utensils.- A room they call a suite is NOT a suite.  It's a deluxe room.  To me, a "suite" is separate rooms.  Two 2' deep pony walls don't make it a suite, folks.  All in all, this is a fantastic place with a couple of warts.  I realize that metal utensils and real glasses and mugs cost money, but plastic and Styrofoam are terrible.Whenever I visit, part of my arrival involves stopping at Family Dollar about a mile away to spend $4 on a coffee mug, a glass, and metal utensils.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r402545028-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>402545028</t>
+  </si>
+  <si>
+    <t>Good, Good, Good</t>
+  </si>
+  <si>
+    <t>A good location-close to everything, eateries, attractions &amp; major thoroughfaresA good night's sleep - a very quiet room and a comfortable bedAnd good service staff- courteous and knowledgeable about the area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r399785528-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>399785528</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Family get away</t>
+  </si>
+  <si>
+    <t>Wonderful hotel. Beds were really comfortable. Clean rooms and the staff was great! Quiet environment close to a lot of food choices. Movie theater right in front as well as a grocery store and more stores. Close to the highway for more choices of places to eat and shop.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r385555563-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>385555563</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Great location 4 restaurants in the greater parking lotPool and hottubAlso no TX 30.06 signFriendly staffRooms nice with large tv'sGood breakfast areaCurrently remodeling so it is getting nicer The king suite has nice sitting area</t>
+  </si>
+  <si>
+    <t>June 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r357825444-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
@@ -294,12 +647,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>LeAnn H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r349299290-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -319,9 +666,6 @@
   </si>
   <si>
     <t>We had the opportunity to do a whirlwind college visit trip with our son.  We traveled right at 900 miles in a little over four days time.  We stayed in 3 comparable hotels, roughly 250 miles apart from the last one, 3 different chains, 3 nights in a row.  We choose this one because it was close to the University our son was visiting and offered a reduced rate.  Out of the three hotels we stayed, I'd rank it 2nd.  It was nice for a overnight stay.  It was a  odd, because parts of the hotellooked newer and parts looked old.  There was a building permit on the door, so I guess they are getting ready to remodel  The furniture was in good shape, but very outdated oak looking stuff.  I have never been in an elevator with a tv.  Seems like a waste, we were only on the 2nd floor-quirky, but no big deal one way or the other.  Same thing with a very old fashioned phone on the bathroom wall.  The bathroom was clean, but the coffee pot on the bathroom vanity, with a real pot and real cups just isn't sanity or appealing to me. The counter looked like marble, sure it wasn't, but the shower bathtub was the only "pre-fab" job out of the three we stayed in.  The shower, did have the best water pressure. One thing I would like this chain to consider:  Most...We had the opportunity to do a whirlwind college visit trip with our son.  We traveled right at 900 miles in a little over four days time.  We stayed in 3 comparable hotels, roughly 250 miles apart from the last one, 3 different chains, 3 nights in a row.  We choose this one because it was close to the University our son was visiting and offered a reduced rate.  Out of the three hotels we stayed, I'd rank it 2nd.  It was nice for a overnight stay.  It was a  odd, because parts of the hotellooked newer and parts looked old.  There was a building permit on the door, so I guess they are getting ready to remodel  The furniture was in good shape, but very outdated oak looking stuff.  I have never been in an elevator with a tv.  Seems like a waste, we were only on the 2nd floor-quirky, but no big deal one way or the other.  Same thing with a very old fashioned phone on the bathroom wall.  The bathroom was clean, but the coffee pot on the bathroom vanity, with a real pot and real cups just isn't sanity or appealing to me. The counter looked like marble, sure it wasn't, but the shower bathtub was the only "pre-fab" job out of the three we stayed in.  The shower, did have the best water pressure. One thing I would like this chain to consider:  Most of their hotels use Bath and Bodyworks products.  These are high quality and desirable for a lot of people.  I'm allergic to these products and would appreciate other alternatives.  I'm sure there are males who would appreciate lemon and ginger or jasmine alternatives as well.  I do appreciate the little mouth washes.  The bed was very good and overall a pleasant experience.  I went down to the breakfast area the next morning to see my husband munching on bacon.  It was the only breakfast of the three that had breakfast meat without gravy mixed in it.  That's all we had, we had a light breakfast at our college orientation, but the area was very clean and stocked.  This hotel is a good location, lots of restaurants and shops nearby, but not horrible traffic considering the location.  Will definitely stay here again should our son choose the nearby university.More</t>
-  </si>
-  <si>
-    <t>Norma J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r344870389-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
@@ -344,9 +688,6 @@
 Some hotels offer complimentary water in the rooms or for their elite loyalty program members--this hotel offers complimentary...This is a GREAT hotel!!  I spend about 300 nights per year in hotels, and this hotel always stands out.  The reason why?  All of the little things they do and offer...  First off, the location is really good: movie theater across the street, grocery store less than 5 minutes away, several restaurants within walking distance, and they are right off of I20, but you would never know it--there are huge trees between the hotel and the interstate, so you cannot hear any of the highway noise.  I mentioned the restaurants in the area, but you may not even need them.  They offer the traditional complimentary breakfast that all HIEs offer, and so much more: lots of cereal and bread options (granola and fruit bars), bacon and sausage, hard boiled and scrambled eggs (or omelettes), several juice and milk options, and if you want to take your breakfast to go (either up to your room or in the car) they will provide you with trays or to go bags and boxes.  They provide dinner to their guests 4 nights out of the week--not appetizers--full dinner!!  Tonight they were serving beef tips, mashed potatoes, corn on the cob, complimentary beer, wine and sodas.  They have ice cream for sale in the lobby, and always have complimentary fresh fruit and popcorn for their guests. Some hotels offer complimentary water in the rooms or for their elite loyalty program members--this hotel offers complimentary water to ALL of their guests (no limits!). The rooms are amazing too--they have the standard Bath and Body Works bath products as well as shower gel and mouth wash--and if you stay in one of the Jacuzzi suites, they provide complimentary tooth brush and tooth paste, razor and comb, and more shower gel for the Jacuzzi tub (mine is in the shape of a heart :D).  The suites also offer 'sleep kits' with an eye mask, ear plugs, lavender spray for your sheets.  I went to hang up my clothes for tomorrow, and there were at least 6 shirt and 6 pant/skirt hangers--so many more that what is normally found in a hotel closet.  All of the rooms have microwaves and refrigerators and HUGE TVs with expanded cable and 3 channels of current/complimentary movies.  The hotel is preparing for a complete renovation, and the staff is so excited!  They seem to be looking forward to offering their guests a 'new' hotel, and if I know this team, not only will they have a beautiful new product, they will add as many little things as they are allowed to, because they know that it's the little things that stand out and make a difference to the Road Warrior!More</t>
   </si>
   <si>
-    <t>william Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r336406991-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -362,9 +703,6 @@
     <t>We flew into DFW and drove down to I-20 to go to east Texas. This hotel is very close to the interstate. The reception was friendly and quick. The hotel is clean feels safe and was a good choice. The air conditioning works great and this is important especially if you are here in the summer.</t>
   </si>
   <si>
-    <t>1gardengirl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r316946589-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -389,9 +727,6 @@
     <t>The Hotel say's it's off I-20, but at night if you are not familiar with the area it is difficult to find.  We told the girl at the desk it was difficult to find and it didn't seem to surprise her as if she had heard that before.  We stopped at the Denny's and the nice girl told us how to get there.  Once we found the way it was not a problem.  Our room was on the 2nd Floor and the room was very quiet.  Guess we were so tired a truck could have come thru the room.  We slept well and the room was comfortable.  The breakfast was ok, but girl serving did not speak much English.  We did overhear her talking to another worker.  Don't speak the language unless you know the people sitting around you don't understand.  Other than that, the stay and breakfast were good.More</t>
   </si>
   <si>
-    <t>bonniepowell540</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r303613739-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -413,9 +748,6 @@
     <t>During my stay i had my wallet lost/stolen. My room was only about 20 ft from the front desk and breakfast area (which is the only place I'd been) and realized it was missing within just about 20 minutes of leaving the hotel that morning. And i had had it in my hand just minutes of exiting my room. I checked with the front desk about 30 times throughout the day to see if anyone has returned it. I came in around 11pm and noticed there was a camera in the breakfast area....never once did anyone offer to check it for me!!!! I finally asked the what looked like a 16 yr old front desk worker that i needed to speak with a manager about my wallet and of course he was completely alone and we had to suggest getting the police from the next door ihop to get him to call someone. Was told the manager was the only one that could veiw the tapes and he would be in the next day at 10am. Well of course I had to check out and be gone by 6 am. Nicely enough I got a call stating a guest returned my wallet and it was found in the parking lot. Of course no cash left. Not to mention being 20 hrs from home no money no cards and no id throughout my only full day in texas and all the...During my stay i had my wallet lost/stolen. My room was only about 20 ft from the front desk and breakfast area (which is the only place I'd been) and realized it was missing within just about 20 minutes of leaving the hotel that morning. And i had had it in my hand just minutes of exiting my room. I checked with the front desk about 30 times throughout the day to see if anyone has returned it. I came in around 11pm and noticed there was a camera in the breakfast area....never once did anyone offer to check it for me!!!! I finally asked the what looked like a 16 yr old front desk worker that i needed to speak with a manager about my wallet and of course he was completely alone and we had to suggest getting the police from the next door ihop to get him to call someone. Was told the manager was the only one that could veiw the tapes and he would be in the next day at 10am. Well of course I had to check out and be gone by 6 am. Nicely enough I got a call stating a guest returned my wallet and it was found in the parking lot. Of course no cash left. Not to mention being 20 hrs from home no money no cards and no id throughout my only full day in texas and all the way back on a 24 hr bus ride!! Joyous!!!! Well when i asked for the manager to still call me i wanted to know if anything was on the camera....that of course never happened. Called again the next day....never happened. Then when i chose to call customer relations and explain to them the shadyness with housekeeping and allowing people in our room without permission the previous night and lack of help from a managaer....BAM 15 minutes later I got a call. The "assistant general managaer" had checked the cameras and didn't see anything. Oh and by the way no parking lot camera.....how convenient. I am appalled by the lack of security and help from the manager over this situation. I had over $200 taken from my wallet before it was returned. All I wanted to know was of it was my mistake or if somebody had vitiously taken it when I turned my back for a minute or if it was a housekeeping situation. And I got nothing from this general manager. Never a call nothing. I expect if this situation in all its detail that was to long to write had happened to him...he'd own that hotel! Needless to say I've notified the organization of over 20000 people I was joining in Texas to mark the unhelpful...less than secured hotel off the list for next year. Thanks general manager Peter for all your help, I hope this never happens to you! More</t>
   </si>
   <si>
-    <t>Borodog</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r286470324-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -443,9 +775,6 @@
     <t>This is probably one of the nicest Holiday Inn Expresses that we have stayed at. It is clean, smart and the staff are the friendliest we have come across. Nothing is too much trouble. The standard Holiday Inn Express breakfast was the best we had in three weeks in Texas. The pool is great and a good place to relax after a hot day in Dallas. Our room was at the back and there was minimal noise from the I20 but the upside is that you were quickly on to the I20 to travel anywhere else.The hotel is only 20 minute drive away from DFW Airport along the I20 and 360, and the Premium Outlets are five minutes away either on the I20 or along a little back route we discovered. Around the Premium Outlets there is a Texas Roadhouse and an Applebees.More</t>
   </si>
   <si>
-    <t>scott175</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r285650213-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -473,9 +802,6 @@
     <t>Horrible experience from the check in to the check out.Reserved a double queen and got a single with pull out sofa.Front desk had the wrong check in and check out dates but refused to correct Hotel's mistake on receipt.Manager was not helpful at all. Will absolutely NEVER stay at this hotel again.More</t>
   </si>
   <si>
-    <t>Angie L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r282407692-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -503,9 +829,6 @@
     <t>Even though Holiday Inns are generally a little pricier compared to Choice Hotels that I normally stay at, I was in town for a special occasion so I figured why not splurge a little and have some fun! First of all, the breakfast is out of this world. They have it all, bisquits, gravy, cinnamon rolls, all kinds of yogurt, toast, etc. The rooms were extremely clean. I couldnt find anything that was dirty in the room. The place is spacious. The bed were so comfortable, it was easily one of the best nights Ive slept in a hotel. The beds have different types of pillows too, i actually prefer the hard pillows since its easier on my neck and I put the soft ones nearby when I was working on my laptop. The check-in process took a bit longer than I would have liked. Oddly enough, the pool was outside across the parking lot. Rarely do I use hotel pools, but if I did, I would feel kind of awkward having to walk out in my bathing suit.More</t>
   </si>
   <si>
-    <t>bigbubbapk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r278822325-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -530,9 +853,6 @@
     <t>My wife and i went to see a graduation.  Our stay at this facility was Great.  Very well kept, rooms clean &amp; fresh.   A really good breakfast as well.  Very convenient location for shopping, restaurants &amp; movies.  I strongly recommend this facility for anyone in the Grand Prairie Texas area.  I know that I.will be back..More</t>
   </si>
   <si>
-    <t>acook110774</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r264665956-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -557,9 +877,6 @@
     <t>This is one of the nicest holiday inn express hotels I've stayed at. Nice happy hour twice a week, warm cookies during the day, and complimentary bottled water.Very large TV in the rooms with excellent cable selection.More</t>
   </si>
   <si>
-    <t>Debbie V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r247003471-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -581,9 +898,6 @@
     <t>We stayed 12/31 (1 night prior to the Cotton Bowl).  The hotel offered free cookies and bottled water upon check in.  The room (third floor) was clean, quiet, and the beds were very comfortable.  The breakfast selection was amazing.  Delicious coffee choices, juices, scrambled eggs and omelettes (scrambled were better), biscuits, gravy, sausage, hot and cold cereals, boiled eggs, yogurt, apples, bananas, oranges, sweet rolls and breads w/ toaster to make as you please, and several other selections.  The breakfast alone was worth it since we were headed to the game and wouldn't be eating again for several hrs.  Remember this hotel is located inside the shopping center parking lot (West chase drive I believe) just past Cheddars, etc. Hotel is no frills and not fancy, but all we wanted was a nice clean, quiet place to stay w/hot breakfast and coffee and friendly staff, and that's what we got.  It's about 10 minutes from AT&amp;T Stadium.More</t>
   </si>
   <si>
-    <t>Henddoo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r239324606-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -602,9 +916,6 @@
     <t>I really enjoyed the entire experience. The room was clean and comfortable and the WiFi was strong. My wife and I will be back. The breakfast buffet was excellent. This is a great place for the cost and location. More</t>
   </si>
   <si>
-    <t>Robert H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r236563709-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -635,9 +946,6 @@
     <t>Several friends and I stayed here for our Spring Break after going to Six Flags. It is a very nice hotel, fairly close to the park, and good for the price. We'll definitely stay here again if we come back!More</t>
   </si>
   <si>
-    <t>673AlainL</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r233124957-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -659,9 +967,6 @@
     <t>I just came back from staying at this hotel for the weekend and it was great. We went to see the football game so the location was perfect, not too far from the stadium, close to the airport and near good shopping malls. One of the things I was grateful for was breakfast, it overpassed our expectations. Rooms are nice, big and cozy, with great sleeping quality. Front desk staff are very nice and helpful.More</t>
   </si>
   <si>
-    <t>caal49</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r220898709-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -680,9 +985,6 @@
     <t>Our baseball team stayed here during the little league World Series.    The hotel is a little older but clean.  The hotel had a good breakfast and offered complimentary bottle water and cookies in the lobby. Nice outdoor pool.  The hotel only had one elevator and it was broken the last three days of our stay.  Also, the hotel used a very strong air freshener that bothered our allergies.More</t>
   </si>
   <si>
-    <t>Jerry E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r210339167-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -704,9 +1006,6 @@
     <t>An excellent stay! I was here for almost a week, and it was a very nice place to come home to every night. The rates are reasonable, and the rooms are clean and spacious.  The people are friendly and helpful.  Their daily breakfast has a nice variety of hot and cold foods, and a good assortment of breakfast beverages. There's free beverages and snacks throughout the day too. There's plenty of parking, with a small indoor gym and an outdoor pool. The hotel itself is far enough away from Dallas that you aren't inundated with the noise of the big city, but it is still close enough that going into the city isn't an inconvenient drive.  The hotel is located within walking distance of several eateries (both casual and dine-in).  There are some shops, big chain stores, and even movie theaters that are quick walk away.All things considered, there's nothing that I can think of that would prevent me from staying here again!More</t>
   </si>
   <si>
-    <t>Steve B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r207726490-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -725,9 +1024,6 @@
     <t>The Holiday Inn Express Grand Prairie Texas is conveniently located off of I20 with easy access in and out. The hotel is clean and quiet. Rooms are good. The breakfast buffet is typical for a HI Express. Not bad but nothing to write home about. On the positive side the Manager's open house was a nice spiff giving away food and drinks. The only real negative was the exercise room in which one treadmill was broke while the other one was stuck at 4.5 degrees of incline. Overall, for the price it's a good value.More</t>
   </si>
   <si>
-    <t>dgeanetta</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r205098638-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -749,9 +1045,6 @@
     <t>I had been staying at a different hotel in the area and was just fed up and disgusted with them I tried the Holiday In  Express Grand Prairie and was pleasantly surprised! The hotel was clean, quiet and nicely furnished. It is close to shopping, movie theater, post office and numerous restaurants. The staff is friendly and attentive. Thanks, for some great stays. I will be using IHG hotels from now on.More</t>
   </si>
   <si>
-    <t>Creekguy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r199556742-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -776,7 +1069,217 @@
     <t>Stayed here while in the Dallas area for business. Nice friendly staff and a very comfortable and clean room. Comfortable beds and invigorating shower... this was a refreshing stay and I would stay here again. I like the little extras as well, cookies, flavored popcorn, bottled water and even a shoe shine machine. Everyone was pleasant and made me feel welcome. Lots of dining choices nearby (even within walking distance) as well as a movie theatre across the street. The one thing that kept me from rating it a 5 was the carpet in the room is kind of worn out, not a big deal but looks a little shabby. Wish I was staying here for a longer period... oh well, next time for sure!More</t>
   </si>
   <si>
-    <t>Susan D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r190994934-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>190994934</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>We always stay here if we're in this area. It is clean and comfortable. The people there are always welcoming. Fresh fruit, cookies and bottled water in the lobby make it feel close to home, as does their "goody" bag. MoreShow less</t>
+  </si>
+  <si>
+    <t>We always stay here if we're in this area. It is clean and comfortable. The people there are always welcoming. Fresh fruit, cookies and bottled water in the lobby make it feel close to home, as does their "goody" bag. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r189478321-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>189478321</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>Won't stay here again!</t>
+  </si>
+  <si>
+    <t>We were sorely dissapointed with our stay.  The entrance is a simple check-in desk and then directly behind it is the breakfast area.  There is no lobby with seating offered.  Upon arriving we found a used water and juice bottle in our room, as well as hair in the shower.  On top of that you can hear ever step the people in the room above you make.  Do not stay here if you are light sleeper.  We were awakened from 4-5 am due to the noise above us!  They do offer free bottled water and a goody bag with snacks, which was a very nice touch.  I did not eat the continental breakfast, I only got coffee, but it looked good.  Though they do have a fridge and microwave inside the rooms, but the coffee pot is located in the restroom.  The address given does not take you directly to the hotel.  We had to explore around and behind a shopping center to find it.  But it is located directly off of I-20 and there are plenty of restraunts and even a Starbucks nearby.  We stayed here because we were looking for a cheaper option for the Cowboys game.  It is only a 10-15 minute drive to the stadium.  I guess it depends what you are looking for in a hotel, but we were not impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Peter D, Manager at Holiday Inn Express Grand Prairie I-20, responded to this reviewResponded January 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2014</t>
+  </si>
+  <si>
+    <t>We were sorely dissapointed with our stay.  The entrance is a simple check-in desk and then directly behind it is the breakfast area.  There is no lobby with seating offered.  Upon arriving we found a used water and juice bottle in our room, as well as hair in the shower.  On top of that you can hear ever step the people in the room above you make.  Do not stay here if you are light sleeper.  We were awakened from 4-5 am due to the noise above us!  They do offer free bottled water and a goody bag with snacks, which was a very nice touch.  I did not eat the continental breakfast, I only got coffee, but it looked good.  Though they do have a fridge and microwave inside the rooms, but the coffee pot is located in the restroom.  The address given does not take you directly to the hotel.  We had to explore around and behind a shopping center to find it.  But it is located directly off of I-20 and there are plenty of restraunts and even a Starbucks nearby.  We stayed here because we were looking for a cheaper option for the Cowboys game.  It is only a 10-15 minute drive to the stadium.  I guess it depends what you are looking for in a hotel, but we were not impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r189080230-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>189080230</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>Perfect Spot</t>
+  </si>
+  <si>
+    <t>After a cross-country trip of awful motels, I will never doubt the power of the Holiday Inn again. Sign up for the rewards program and appreciate the fluffy bed/pillows, excellent staff, and continental breakfast,MoreShow less</t>
+  </si>
+  <si>
+    <t>After a cross-country trip of awful motels, I will never doubt the power of the Holiday Inn again. Sign up for the rewards program and appreciate the fluffy bed/pillows, excellent staff, and continental breakfast,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r184678665-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>184678665</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>Excellent Hotel Stay</t>
+  </si>
+  <si>
+    <t>Great staff, clean hotel and most important clean rooms.  Breakfast was typical HIE...most important was that they keep the cinnamon rolls covered...so that they don't dry out.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Great staff, clean hotel and most important clean rooms.  Breakfast was typical HIE...most important was that they keep the cinnamon rolls covered...so that they don't dry out.  I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r181535786-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>181535786</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Super nice check-in service. Iwas so pleased to have my rewards club honored, we received a late check out. So thankful. The rooms were just as described at time of reservation. Very clean inside and out. Great location, will stay here again and will recommend to family and friends the come to Lone Star.MoreShow less</t>
+  </si>
+  <si>
+    <t>Peter D, General Manager at Holiday Inn Express Grand Prairie I-20, responded to this reviewResponded October 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2013</t>
+  </si>
+  <si>
+    <t>Super nice check-in service. Iwas so pleased to have my rewards club honored, we received a late check out. So thankful. The rooms were just as described at time of reservation. Very clean inside and out. Great location, will stay here again and will recommend to family and friends the come to Lone Star.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r176536351-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>176536351</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>Excellent Choice</t>
+  </si>
+  <si>
+    <t>Wonderful experience. From the moment we walked in we felt a warm welcome. We were checked in by Lawanda and she was so friendly and accommodating. We had ask her for directions to several different places we were to visit and without hesitation she was ready to assist. The second night we were there we came down for the hotels drinks and food and was greeted again by Lawanda who ask us if we were enjoying are stay and if we needed anything. We will definitely stay here again when we return to the area in October for a game. keep doing what your doingMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Peter D, Manager at Holiday Inn Express Grand Prairie I-20, responded to this reviewResponded September 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2013</t>
+  </si>
+  <si>
+    <t>Wonderful experience. From the moment we walked in we felt a warm welcome. We were checked in by Lawanda and she was so friendly and accommodating. We had ask her for directions to several different places we were to visit and without hesitation she was ready to assist. The second night we were there we came down for the hotels drinks and food and was greeted again by Lawanda who ask us if we were enjoying are stay and if we needed anything. We will definitely stay here again when we return to the area in October for a game. keep doing what your doingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r176372955-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>176372955</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>Excellent Choice In Grand Prairie TX</t>
+  </si>
+  <si>
+    <t>Stay here over night on a business trip to the area.  The hotel is off the main road, tucked in behind several restaurants, a grocery store and a movie theater complex.  Check in was fast and friendly and very accommodating.  My room was very comfortable and quiet with newer furnishings, clean linens, frig, microwave and a good work area.  Bathroom was clean and spacious.  Wireless internet worked well.  The hotel is within walking distance to a barbeque place (didn't try) and a Cheddar's Restaurant which was very convenient. There is a very nice outdoor pool and spa in front of the hotel which was very refreshing after a long day.  Breakfast in the lobby area was very well done with lots of good choices. This hotel is by far the nicest I have stayed at in several trips to the Grand Prairie area.  I will stay there again the next time I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stay here over night on a business trip to the area.  The hotel is off the main road, tucked in behind several restaurants, a grocery store and a movie theater complex.  Check in was fast and friendly and very accommodating.  My room was very comfortable and quiet with newer furnishings, clean linens, frig, microwave and a good work area.  Bathroom was clean and spacious.  Wireless internet worked well.  The hotel is within walking distance to a barbeque place (didn't try) and a Cheddar's Restaurant which was very convenient. There is a very nice outdoor pool and spa in front of the hotel which was very refreshing after a long day.  Breakfast in the lobby area was very well done with lots of good choices. This hotel is by far the nicest I have stayed at in several trips to the Grand Prairie area.  I will stay there again the next time I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r175810267-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>175810267</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Great Stop</t>
+  </si>
+  <si>
+    <t>We really like this place.  It is halfway between two places we travel to regularly.  We have stayed there three times.  Never disappointed.  Walking distance to several restaurants which we like when we have been driving all day.  Really had no negatives at all.  Clean comfortable quiet rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We really like this place.  It is halfway between two places we travel to regularly.  We have stayed there three times.  Never disappointed.  Walking distance to several restaurants which we like when we have been driving all day.  Really had no negatives at all.  Clean comfortable quiet rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r170281951-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>170281951</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>We recently spent two nights at the Holiday Inn Express in Grand prairie Texas. When I first walked in the door I saw a sign they had posted stating "we want to be rated as exceptional by you. Being a frequent traveler I did have some doubt they would live up to that.I came away pleasantly surprised. Starting with the best welcome bag I;ve ever receieved from a HI Express to the free popcorn, water and cookies they lived up to their promise. The room and work out facilities were also fine. Oh and the staff was very friendly too. Couple this with a various restaurants in the same complex it was a very convenient and enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Peter D, Manager at Holiday Inn Express Grand Prairie I-20, responded to this reviewResponded August 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2013</t>
+  </si>
+  <si>
+    <t>We recently spent two nights at the Holiday Inn Express in Grand prairie Texas. When I first walked in the door I saw a sign they had posted stating "we want to be rated as exceptional by you. Being a frequent traveler I did have some doubt they would live up to that.I came away pleasantly surprised. Starting with the best welcome bag I;ve ever receieved from a HI Express to the free popcorn, water and cookies they lived up to their promise. The room and work out facilities were also fine. Oh and the staff was very friendly too. Couple this with a various restaurants in the same complex it was a very convenient and enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r170261193-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>170261193</t>
+  </si>
+  <si>
+    <t>Good place</t>
+  </si>
+  <si>
+    <t>This was my second time staying here. The staff is very friendly. Nice pool area out front. The place is quiet and clean. Free food and beer Tuesday and Wednesday nights.Three channels they play blockbuster movies on at night. My kind of place. MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my second time staying here. The staff is very friendly. Nice pool area out front. The place is quiet and clean. Free food and beer Tuesday and Wednesday nights.Three channels they play blockbuster movies on at night. My kind of place. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r170016535-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
@@ -794,21 +1297,9 @@
     <t>This hotel is close to I20, right at the exit. We enjoyed visiting Six flags &amp; rangers game, and then resting at the Holiday Inn Express was joy. The people working at the hotel are friendly and knowledgeable. The morning breakfast was great. At end of everyday we enjoyed the pool and the soothing hot spa. Everything is amazing at the hotel.MoreShow less</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
-    <t>Peter D, Manager at Holiday Inn Express Grand Prairie I-20, responded to this reviewResponded August 2, 2013</t>
-  </si>
-  <si>
-    <t>Responded August 2, 2013</t>
-  </si>
-  <si>
     <t>This hotel is close to I20, right at the exit. We enjoyed visiting Six flags &amp; rangers game, and then resting at the Holiday Inn Express was joy. The people working at the hotel are friendly and knowledgeable. The morning breakfast was great. At end of everyday we enjoyed the pool and the soothing hot spa. Everything is amazing at the hotel.More</t>
   </si>
   <si>
-    <t>Chan W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r167505698-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -827,9 +1318,6 @@
     <t>The folks are very freindly, the breakfast was great. The rooms were great, I enjoyed the large TV and the comfy bed. Lawanda and the staff made this a special trip for us. We will be back to stay at this hotel.More</t>
   </si>
   <si>
-    <t>Sandra S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r167055551-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -848,9 +1336,6 @@
     <t>This hotel has all the amenties, everything in perfect condtion. The best is the friendly staff. The rooms are great, large TV and the best beds. The breakfast was much more than I expected. Great job to the GM.More</t>
   </si>
   <si>
-    <t>SuziQinTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r165588284-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -869,15 +1354,9 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Nice clean hotel in a convenient location.  There are several restaurants and shops within walking distance.  I called ahead and asked for an early check-in and such was granted.  Nice amenities and quiet hotel which was exactly what I wanted at the time.More</t>
   </si>
   <si>
-    <t>Ken M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r162778825-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -887,18 +1366,12 @@
     <t>06/02/2013</t>
   </si>
   <si>
-    <t>Good place</t>
-  </si>
-  <si>
     <t>This was the first time staying here because where I usually stay was full. The staff is very friendly. Nice pool area out front. The place is quiet and clean. My kind of place. There is a couple great places to eat within walking distance. Plus movie theater across the street. MoreShow less</t>
   </si>
   <si>
     <t>This was the first time staying here because where I usually stay was full. The staff is very friendly. Nice pool area out front. The place is quiet and clean. My kind of place. There is a couple great places to eat within walking distance. Plus movie theater across the street. More</t>
   </si>
   <si>
-    <t>Kathleen H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r161515561-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -917,9 +1390,6 @@
     <t>Receptionist was a jewel, all day free coffee, water, and cookies. Room was spacious, comfy beds, nice counter space in bath. Xxxxxxxxx xxxxxxxxxxx xxxxxxxxxx xxxxxxxxxx xxxxxxxxxx xxxxxxxxxx xxxxxxxxxxx xxxxxxxxxx More</t>
   </si>
   <si>
-    <t>Will577</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r149354637-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -944,9 +1414,6 @@
     <t>Rooms were clean and bathroom was clean.  Comfortable bed, breakfast was good, same as all the other holiday inns.  Had water bottles in room each day.  I would stay here again, no real complaints.  Internet was fast.More</t>
   </si>
   <si>
-    <t>SRN</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r146182293-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -968,9 +1435,6 @@
     <t>Very nice hotel next to multiple restaurants within walking distance (exp. Chili's, Golden Coral, fast foods).  Starbucks was across the street along with Wal Mart and small strip mall of stores.Hotel was very clean, nice staff and good breakfast.More</t>
   </si>
   <si>
-    <t>justicelive</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r144564400-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -992,9 +1456,6 @@
     <t>Room was as expected: very clean and comfortable, although the A/C was loud.  Parking lot was convenient.  Exercise facilities are substandard.  Breakfast room is relatively cramped, but selection was decent (except for coffee - which was terrible).  The lobby's decor makes it look cluttered.More</t>
   </si>
   <si>
-    <t>Larry H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r139700900-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1022,9 +1483,6 @@
     <t>My wife and I stayed there for the Alabama vs Michigam football game at Cowboy's stadium.  We were so pleased with our stay from the moment we walked in the door.  The rooms were very clean and the large flat screen TV with a very large choice on cable.  Our morning breakfast in the lobby was over the top and maintained by a very friendly and polite employee.You are in walking distance of some great resturants, IHOP next door and a resturant named Cheddar's that we fell in love with next to it. There is also a shopping center which filled all of our needs while there. I would not hesitate to stay there on my next visit to the Dallas area.More</t>
   </si>
   <si>
-    <t>animalhOuse3_12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r139698803-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1043,9 +1501,6 @@
     <t>Nice hotel but management will overcharge for any damages done and will not provide a receipt even when requested numerous times or respond to any other concerns that have submitted in writing.  I accidentally spilled some nail polish on the carpet and notifed the front desk immediately on a Friday evening.  I also spoke to the Manager LaWanda first thing Saturday morning.  I was up front with them and was more than willing to pay for the damages (assuming they were reasonable).  I was not notified until about an hour after we had checked out on a Sunday afternoon  on our way home that management was charging my credit card $500 and would then credit me the difference once they knew exactly how much the charges were.  I was not given any other option of payment even though I had tried to take care of this since Friday.  I was 8 months pregnant at the time and luckily we did not have any kind of medical emergency or car trouble on our way back home as this ended up tying up any kind of emergency funds we had left on that credit card.  They did end up crediting me $250 several days later  but have ignored my numerous requests for a copy of the invoice from the carpet company showing the cost of the repairs.  Several quotes I received from other carpet companies in my hometown were much cheaper.   I...Nice hotel but management will overcharge for any damages done and will not provide a receipt even when requested numerous times or respond to any other concerns that have submitted in writing.  I accidentally spilled some nail polish on the carpet and notifed the front desk immediately on a Friday evening.  I also spoke to the Manager LaWanda first thing Saturday morning.  I was up front with them and was more than willing to pay for the damages (assuming they were reasonable).  I was not notified until about an hour after we had checked out on a Sunday afternoon  on our way home that management was charging my credit card $500 and would then credit me the difference once they knew exactly how much the charges were.  I was not given any other option of payment even though I had tried to take care of this since Friday.  I was 8 months pregnant at the time and luckily we did not have any kind of medical emergency or car trouble on our way back home as this ended up tying up any kind of emergency funds we had left on that credit card.  They did end up crediting me $250 several days later  but have ignored my numerous requests for a copy of the invoice from the carpet company showing the cost of the repairs.  Several quotes I received from other carpet companies in my hometown were much cheaper.   I  sent 2 separate emails to the General Manager Peter Dasai and my last email was also ignored.  Got an extremely rude customer service rep when calling the corporate office and they failed to resolve my request and referred me back to the hotel itself.  Will not be using the Holiday Inn hotel chain in the future since the Corporate office does not even hold the individual hotels accountable.More</t>
   </si>
   <si>
-    <t>Adam W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r139414131-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1067,9 +1522,6 @@
     <t>I really liked the location since my trip was dual purpose; business in Dallas and recreation in Arlington.  My family met me here since I had a couple days travel and we went to Six Flags during the day.  We always get excited about eating at Cheddars so it was nice that the restaurant was perched near the hotel.  The hotel was clean and well maintained.  I did not care for the location of the pool, but we didn't use the pool.  The free breakfast was great especially the hot cinnamon rolls.  This is a nice hotel forMore</t>
   </si>
   <si>
-    <t>DeborahO228</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r135902767-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1091,9 +1543,6 @@
     <t>We made these reservations back in April when we arrived  5/19/12 with the group Run for the Wall, we were very pleased with the hotel and our room. The front desk personel was friendly and well trained, got us thru the checking in fast and smooth. I don't know what the regular rate was but we got a military rate   :)   We have stayed at several Holiday Inns and they have all been awesome.  I would recomend this one in TX. a big #10 and all of the others across the USA.More</t>
   </si>
   <si>
-    <t>TrainingPro</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r135696742-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1112,9 +1561,6 @@
     <t>Like this place. Close to both DAllas and Ft Worth. Lots of places to eat in a short drive. Grocery store and theater within walking distance. Breakfast always plentiful. CLEAN hotel and nice people. Only downside is air fresheners used in rooms. Don't know what they are exactly, but sometimes room are 'over perfumed'.  I always stay here. Good value. More</t>
   </si>
   <si>
-    <t>visitor081</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r135542226-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1133,9 +1579,6 @@
     <t>I stayed in this hotel mothers day weekend 2012. I choose this hotel from the great reviews listed and I was not disappointed.  My grandmother (age 90) loves Tyler Perry "Plays" and we traveled to Grand Prairie, TX to see the saturday night show at the Verizon Theater.  We live in lousiana, and my grammy does not travel, so I wanted to make sure that this mothers day was a rememerable one and indeed it was.  The front desk clerk were so attentive and patient with my granny, the room were clean and beds were comfortable.  My granny got a kick out of the TVs in the elevators.  Breakfast was good and fresh, the breakfast attended was so good, that we tipped her.  I cannot say enough about the generosity we received from all the hotel staff.  This was a 4 generational trip (my grandmother, my mom, myself and my daughter) and we will never forget this hotel.  I feel an addiction to it.  Oh, lastly, great location.More</t>
   </si>
   <si>
-    <t>AJK789</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r135085753-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1157,9 +1600,6 @@
     <t>Stayed here for 2 nights on a recent business trip. Everything about this property was above average. I arrived ealy in the day (11am) and asked if I could check-in.  The front desk clerk was very accommodating and called housekeeping to to see if a room was ready and sure enough it was. This small gesture of checking on this instead of a - no check-in isn't until later - carries alot of weight and indicates the importance of customer service at this property. The room itself was very clean and I had no complaints. The room included a coffee maker, small refrigerator and a small microwave. Housekeeping maintained it well.  The bathroom was also very clean.  The hotel also provided one evening appetizors and wince/beer for guests. The breakfast selection was good and the staff that maintained the areas was.  The hotel location is excellent with resteraunts and movie theaters within walking distance.  Overall a very good experience and I would recommend this hotel to anyone passing through the area.More</t>
   </si>
   <si>
-    <t>Gary C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r134631852-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1178,9 +1618,6 @@
     <t>Angie helped me book all five rooms and made sure we had everthing we needed during our 4 night stay.  Earl checked us in at different arrival times and helped familiarize our family with the facility.  Thanks LQ GP.  Gary CollinsMore</t>
   </si>
   <si>
-    <t>Ecpayne</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r132087636-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1199,9 +1636,6 @@
     <t>The rooms were nice and the staff friendly, but thought the price was a bit high. More</t>
   </si>
   <si>
-    <t>Richard L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r130482775-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1224,9 +1658,6 @@
   </si>
   <si>
     <t>Stayed at HIEx for business trip. Wasn't expecting much but was pleasantly surprised. Staff extremely friendly, made me feel like I was only customer. Rooms clean, beds comfortable, NS, and quiet. Lots of amenities. Close to many attractions. Will stay here next trip to TX.More</t>
-  </si>
-  <si>
-    <t>cmclauss</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r128197125-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
@@ -1262,9 +1693,6 @@
 Oh, and there is a 16 theater movie theater also within walking distance -...I spent 5 nights at this hotel while on business.  Upon arrival I got a really nice goodie bag of snacks for being a priority club member - better than the usual.  The room was spotless, the bed very comfortable and the furnishings new.  (Carpet should be the next upgrade but I could totally live with it!)  The staff was so friendly and helpful from the front desk to the folks that man the morning breakfast.  Free waters in a cooler, cookies and on Wednesday night I had a beer as part of their happy hour.  I used the fitness center very morning.  I loved that they had wipes for wiping down the equipment, fresh towels and cold water. One of the best things about this hotel is the location.  Within walking distance is IHOP, a ribs place, Cheedars, a grocery store, Ton Mongolian Grill... and more.  within a mile radius, one could eat at a different place for nearly two weeks.  Here is the tricky thing:  If you put the address into your GPS, it will bring you to a plaza with the Holiday Inn nowhere in sight!  I had to ask someone at the grocery store where the hotel was.  If you are facing the grocery store, follow the road around to the right and it will be on your right, just past IHop.  Oh, and there is a 16 theater movie theater also within walking distance - right across the street.More</t>
   </si>
   <si>
-    <t>bphpsu</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r126802406-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1292,9 +1720,6 @@
     <t>We really enjoyed our stay at the HIE during Spring Break.  The rooms are somewhat small (we had a standard double), but we were not in the room that much.  The hotel was clean, service was very friendly, and the morning breakfast was very good.  They also had two computers set up by the breakfast area and WiFi (great for the kid's IPADs.  The hotel was located centrally to Dallas and Fort Worth (we visited both cities during our stay).If you plan to stay, look for a coupon online through the Grand Prairie visitors center.  It was for $89/night (I am sure there are restrictions) We would stay again.More</t>
   </si>
   <si>
-    <t>WHISKEYTIM</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r126303536-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1337,9 +1762,6 @@
     <t>I always try to stay here when going to western edge of Dallas. Staff is always friendly and happy to get extra pillows or towels if you want them. Breakfast is free, satisfying and quick. Grocery store is abt 100 yards away so with room refrig and microwave, you can stick to your diet or eat cheaply. Also has an IHOP, barbq, other rest, fast food places and Baskin &amp; Robbins very near too. (ok there goes your diet!). Walgreens close too. The hotel gives you a nice bag of goodiesif you're a Holiday Inn select club member filled with some healthy &amp; not as healthy snacks along with a bottle of water. There's a theater across the parking lot. Never had time to go, but sure would be convenient. Always great staff. I always stay here when I need to be in this area of town. Feels very safe too. More</t>
   </si>
   <si>
-    <t>Kawhona</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r124231124-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1358,9 +1780,6 @@
     <t>The staff seems to care and I haven't had to wait for anything. I got a king suite and the room is plenty big and clean. It has a relatively new big screen but no HD content. The hotel is consistent with the brand.More</t>
   </si>
   <si>
-    <t>gg1213</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r122549758-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1388,7 +1807,373 @@
     <t>We needed an overnight stay and choose this hotel because of the location and the good reviews. Overall, most of my expectations were met. Upon arrival, check-in staff was nice and the process was easy. If you sign up to become a reward member with Holiday Inn (which is free), you earn points towards a free night and get a nice little goodie bag. The best part of the hotel was the free bottles of water. The room was clean, decor seemed dated but our stay was comfortable. The hot breakfast was good and consisted more than yogurt and granola bars. There was also cereal, pancakes, biscuits, sausage to name a few items. The location was great. We only 15 mins away from Cowboys Stadium, 20 mins from downtown Dallas, and the hotel was in a location with several restaurants and eateries. There were even a couple of movie theaters nearby, one within walking distance. All in all, my husband and I would definitely stay here again.More</t>
   </si>
   <si>
-    <t>GJohnsonTulsa</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r121250233-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>121250233</t>
+  </si>
+  <si>
+    <t>11/30/2011</t>
+  </si>
+  <si>
+    <t>Bed bugs</t>
+  </si>
+  <si>
+    <t>The room  looked clean however once my kids were on bed and the room was quiet, I was about to turn the light off when I saw about 3 Huge bed bugs crawling on the wall.  Then there were more crowling on the wall by the beds.I called the front desk and they didn't sound surprised, they told me that they needed to call the manager. Finally we were moved to another room were no visible bed bugs. I would not stay there ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Peter D, Manager at Holiday Inn Express Grand Prairie I-20, responded to this reviewResponded December 5, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2011</t>
+  </si>
+  <si>
+    <t>The room  looked clean however once my kids were on bed and the room was quiet, I was about to turn the light off when I saw about 3 Huge bed bugs crawling on the wall.  Then there were more crowling on the wall by the beds.I called the front desk and they didn't sound surprised, they told me that they needed to call the manager. Finally we were moved to another room were no visible bed bugs. I would not stay there ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r120685450-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>120685450</t>
+  </si>
+  <si>
+    <t>11/16/2011</t>
+  </si>
+  <si>
+    <t>Terrible Customer Service</t>
+  </si>
+  <si>
+    <t>I cancelled a reservation at this hotel and was charged a no-show fee. I called the manager of the hotel and she told me that I had two reservations in their computer system and she would not refund my money if I didn't have a cancellation number for the second reservation. I will never use this facility and will advise anyone I know to do the same.  Terrible customer service,MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I cancelled a reservation at this hotel and was charged a no-show fee. I called the manager of the hotel and she told me that I had two reservations in their computer system and she would not refund my money if I didn't have a cancellation number for the second reservation. I will never use this facility and will advise anyone I know to do the same.  Terrible customer service,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r119403376-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>119403376</t>
+  </si>
+  <si>
+    <t>10/17/2011</t>
+  </si>
+  <si>
+    <t>AYE-MAZING</t>
+  </si>
+  <si>
+    <t>My husband and I have been looking for a real jacuzzi room, not the jets in a bathtub,  for months and came across this place. The room was GREAT! Our attendant, Bertha, set up little gifts and bathrobes for us in our room.  It was furnished with plastic ware for our food. The breakfast was unbelievable and the breakfast attendant was willing to get anything we needed. There was a beautiful hot tub and pool outside, with a nice cabana area. They even had a fridge in the lobby with free water. The staff was always available and happy to help, and the smiles never ended. This is going to be our vacation spot when we need to get away. Awesome place.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I have been looking for a real jacuzzi room, not the jets in a bathtub,  for months and came across this place. The room was GREAT! Our attendant, Bertha, set up little gifts and bathrobes for us in our room.  It was furnished with plastic ware for our food. The breakfast was unbelievable and the breakfast attendant was willing to get anything we needed. There was a beautiful hot tub and pool outside, with a nice cabana area. They even had a fridge in the lobby with free water. The staff was always available and happy to help, and the smiles never ended. This is going to be our vacation spot when we need to get away. Awesome place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r118938142-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>118938142</t>
+  </si>
+  <si>
+    <t>10/04/2011</t>
+  </si>
+  <si>
+    <t>Wonderful Little Extras Here.</t>
+  </si>
+  <si>
+    <t>We stayed only one night at this warm and friendly little hotel while we were in Grand Prairie attending a concert at the Verizon Theatre there.  Upon check in we were given a lovely little gift bag with nice little treats inside. Very warm reception area with popcorn popped, fresh cookies on a covered tray, flowers in the vase. Just lovely. Upon entering the room, there was also a nice little silk bag with linen spray, ear plugs, and soft eye covers for sleeping if you needed them. Just a really nice welcome bag. The bed was fab and very comfortable with clean, crispy but soft sheets. Everything was spic and span and very quiet with thick doors. We heard NO other noise at all the whole time we were there. We will DEFINITELY be staying here again and again when we travel through this area. It is very, very easy to find as well. Right off the freeway and easy to find. It's been a long time since we stayed at a hotel that made us feel so welcomed.  We highly recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>We stayed only one night at this warm and friendly little hotel while we were in Grand Prairie attending a concert at the Verizon Theatre there.  Upon check in we were given a lovely little gift bag with nice little treats inside. Very warm reception area with popcorn popped, fresh cookies on a covered tray, flowers in the vase. Just lovely. Upon entering the room, there was also a nice little silk bag with linen spray, ear plugs, and soft eye covers for sleeping if you needed them. Just a really nice welcome bag. The bed was fab and very comfortable with clean, crispy but soft sheets. Everything was spic and span and very quiet with thick doors. We heard NO other noise at all the whole time we were there. We will DEFINITELY be staying here again and again when we travel through this area. It is very, very easy to find as well. Right off the freeway and easy to find. It's been a long time since we stayed at a hotel that made us feel so welcomed.  We highly recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r118607518-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>118607518</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Overall Great Hotel</t>
+  </si>
+  <si>
+    <t>I travel considerably for work and this hotel is by far one of my favorites -- the rates are VERY reasonable and the accommodations are always clean.  What makes the difference is the staff/employees at this hotel.  They go out of their way to make sure your stay is a plesant one -- I visit this area approximately every other month and after the second arrival at this hotel, they knew my name and had all of the documentation ready for check-in upon my walking thru the entrance!  Priority Club members also receive a free goodie bag upon check-in and there are free bottles of water in the lobby.   The location of the hotel is also ideal if traveling between Arlington, Grand Prarie, and Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel considerably for work and this hotel is by far one of my favorites -- the rates are VERY reasonable and the accommodations are always clean.  What makes the difference is the staff/employees at this hotel.  They go out of their way to make sure your stay is a plesant one -- I visit this area approximately every other month and after the second arrival at this hotel, they knew my name and had all of the documentation ready for check-in upon my walking thru the entrance!  Priority Club members also receive a free goodie bag upon check-in and there are free bottles of water in the lobby.   The location of the hotel is also ideal if traveling between Arlington, Grand Prarie, and Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r118591951-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>118591951</t>
+  </si>
+  <si>
+    <t>09/25/2011</t>
+  </si>
+  <si>
+    <t>Good value and excellent service</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for four nights in August.  Great location between Dallas and Fort Worth and across the road from a cinema complex, restaurants and shopping.  The rooms are clean, comfortable and are a good size.  Good self service laundry facilities and great pool.  Staff were all very friendly and helpful, loved the complimentry popcorn, cookies and fruit in the lobby.  Would definately recommend this hotel.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r118007152-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>118007152</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Good choice when visiting Arlington</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a event held at Cowboy Stadium in Arlington.  It was a quick 15 minute drive by freeway to get there.  The hotel was clean, the employees were friendly and they had free, cold bottled water in the lobby which was a lifesaver in the heat during our stay.  We got a great price on hotwire, but even booking through a third party our room requests were granted.  Priority Club members get a free welcome gift (bag of snacks).  Parking was never an issue and the hotel is right next to IHOP with a BBQ restaurant, Cheddar's, Subway, Albertsons and movie theater all in the same parking lot.  I would stay here again and recommend to others!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a event held at Cowboy Stadium in Arlington.  It was a quick 15 minute drive by freeway to get there.  The hotel was clean, the employees were friendly and they had free, cold bottled water in the lobby which was a lifesaver in the heat during our stay.  We got a great price on hotwire, but even booking through a third party our room requests were granted.  Priority Club members get a free welcome gift (bag of snacks).  Parking was never an issue and the hotel is right next to IHOP with a BBQ restaurant, Cheddar's, Subway, Albertsons and movie theater all in the same parking lot.  I would stay here again and recommend to others!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r116572988-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>116572988</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>Outstanding staff, great value.</t>
+  </si>
+  <si>
+    <t>This is a relatively new property, very clean, usual Holiday Inn Express amenities.  Staff were all very cheerful and accommodating.  I will stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r116232932-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>116232932</t>
+  </si>
+  <si>
+    <t>08/03/2011</t>
+  </si>
+  <si>
+    <t>VERY clean and great service</t>
+  </si>
+  <si>
+    <t>Safe neighborhood, clean rooms, attentive service. The best breakfast bar  for this price ever. Welcome dinner and beverages on Wednesday night and another....not sure when. Clean pool and hot tub. Very helpful front desk. Would definitely stay again and recommend to all travelers.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r115593793-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>115593793</t>
+  </si>
+  <si>
+    <t>07/20/2011</t>
+  </si>
+  <si>
+    <t>Good stay at a good price</t>
+  </si>
+  <si>
+    <t>I stayed here for Superbowl 45. I could have stayed closer to Cowboy stadium but didn't want to pay the premium prices. Even with Superbowl traffic it took us less than 20 minutes to get to the stadium. Dallas is a bit of a drive but with immediate access to the freeway it was an easy and conveniant commute.I tend to stay at Holiday inn express hotels because they have proven to me to be consistant. This one has everything you need. In the same complex as the hotel is a supermarket, gas station, a few resturants, etc...The hotel itself is clean, comfortable, quiet. Housekeeping was excellent. Check in was friendly and efficient. They initially put me on the ground floor and I asked to be moved to an upper floor. I do that to avoid Lobby traffic around my room. Not just at this hotel but anywhere I stay. They moved me to the third floor with no problem. Their continental breakfast was fresh, hot and well supervised.This isn't a resort but it was exactly what I was looking for when I wanted to go to the big game and at the same time see a few sights in Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I stayed here for Superbowl 45. I could have stayed closer to Cowboy stadium but didn't want to pay the premium prices. Even with Superbowl traffic it took us less than 20 minutes to get to the stadium. Dallas is a bit of a drive but with immediate access to the freeway it was an easy and conveniant commute.I tend to stay at Holiday inn express hotels because they have proven to me to be consistant. This one has everything you need. In the same complex as the hotel is a supermarket, gas station, a few resturants, etc...The hotel itself is clean, comfortable, quiet. Housekeeping was excellent. Check in was friendly and efficient. They initially put me on the ground floor and I asked to be moved to an upper floor. I do that to avoid Lobby traffic around my room. Not just at this hotel but anywhere I stay. They moved me to the third floor with no problem. Their continental breakfast was fresh, hot and well supervised.This isn't a resort but it was exactly what I was looking for when I wanted to go to the big game and at the same time see a few sights in Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r113766303-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>113766303</t>
+  </si>
+  <si>
+    <t>06/15/2011</t>
+  </si>
+  <si>
+    <t>Clean room, good location, great value.</t>
+  </si>
+  <si>
+    <t>Booked the trip along with a flight reservation on Travelocity, got a great rate (lower than advertised on most all websites), stayed in the King with whirlpool room.  Room was cleaned and made up everyday, fresh amenities, free breakfast was great and staff was always helpful.  It was a little difficult to find using GPS, don't follow the directions, its in the back of a strip mall shopping area with 4 restaurants next to the IHOP.  Would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r113734881-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>113734881</t>
+  </si>
+  <si>
+    <t>Excellent ~ definitely suggest ~</t>
+  </si>
+  <si>
+    <t>The rooms were beautiful and the staff was wonderful. My son and I truly enjoyed ourselves. we will come back here again, when we are in Dallas.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r98292069-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>98292069</t>
+  </si>
+  <si>
+    <t>02/27/2011</t>
+  </si>
+  <si>
+    <t>Consistently Excellent</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel mutliple times in the last year and the service and cleanliness is consistently excellent. The management and staff pay attention to the "little things" that do matter and make a guest feel their business is appreciated. The location is very convenient to restaurants, a grocery store and two movie theaters.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r93076223-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>93076223</t>
+  </si>
+  <si>
+    <t>01/15/2011</t>
+  </si>
+  <si>
+    <t>lOVE IT</t>
+  </si>
+  <si>
+    <t>WE GOT A ROMANTIC MASTER SUITE FOR VALENTINES DAY, THE ROOM was good! it had a heart shaped jaccuzi, the bedroom was a little small but  the bed was very comfy, i dislike the view very much. it was just a view of the parking lot, not very romantic. but other than that the room was great.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r55012794-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>55012794</t>
+  </si>
+  <si>
+    <t>02/02/2010</t>
+  </si>
+  <si>
+    <t>Best Holiday Inn experience!</t>
+  </si>
+  <si>
+    <t>I stayed here for one night and was very surprised. Check-in took literally less than one minute, and I had my room keys. Large king-size bed w/ like ten pillows, very clean room, mini-fridge, microwave, large clean bathroom w/ plenty of towels, plenty of toiletries, a sign offering complimentary toothbrush and other items incase you forgot anything. Beyond that, COMPLIMENTARY internet in the room (wireless &amp; ethernet hookup), complimentary bottled water &amp; fresh fruit kept chilled in the lobby 24 hours, complimentary breakfast - Eggs, bacon, sausage, muffins, bagels, yogurt (so many choices), orange/apple/grape juice, chocolate/regular/2% milk, toast, cereal, and much more...I mean the list could go on and on. It really didn't feel like I was staying in a Holiday Inn Express - more like a 4* hotel. The management at this hotel definitely needs to be given an award or something. The location is great as well. All around this hotel there are multiple restaurants - Cheddars, Springcreek BBQ, and many others; I just can't remember them all. Also there are two movie theaters, literally within walking distance. Go down I-20 for 5 minutes and you'll be at the Parks Mall in Arlington or an exit before that there is the 'Arlington Highlands' - pretty much a brand new entertainment district with bowling alleys, tons of restaurants, movie theater, Dave &amp; Buster's arcade, etc. All in all, a very great hotel and would recommend to anyone thats looking...I stayed here for one night and was very surprised. Check-in took literally less than one minute, and I had my room keys. Large king-size bed w/ like ten pillows, very clean room, mini-fridge, microwave, large clean bathroom w/ plenty of towels, plenty of toiletries, a sign offering complimentary toothbrush and other items incase you forgot anything. Beyond that, COMPLIMENTARY internet in the room (wireless &amp; ethernet hookup), complimentary bottled water &amp; fresh fruit kept chilled in the lobby 24 hours, complimentary breakfast - Eggs, bacon, sausage, muffins, bagels, yogurt (so many choices), orange/apple/grape juice, chocolate/regular/2% milk, toast, cereal, and much more...I mean the list could go on and on. It really didn't feel like I was staying in a Holiday Inn Express - more like a 4* hotel. The management at this hotel definitely needs to be given an award or something. The location is great as well. All around this hotel there are multiple restaurants - Cheddars, Springcreek BBQ, and many others; I just can't remember them all. Also there are two movie theaters, literally within walking distance. Go down I-20 for 5 minutes and you'll be at the Parks Mall in Arlington or an exit before that there is the 'Arlington Highlands' - pretty much a brand new entertainment district with bowling alleys, tons of restaurants, movie theater, Dave &amp; Buster's arcade, etc. All in all, a very great hotel and would recommend to anyone thats looking for accomodation in that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for one night and was very surprised. Check-in took literally less than one minute, and I had my room keys. Large king-size bed w/ like ten pillows, very clean room, mini-fridge, microwave, large clean bathroom w/ plenty of towels, plenty of toiletries, a sign offering complimentary toothbrush and other items incase you forgot anything. Beyond that, COMPLIMENTARY internet in the room (wireless &amp; ethernet hookup), complimentary bottled water &amp; fresh fruit kept chilled in the lobby 24 hours, complimentary breakfast - Eggs, bacon, sausage, muffins, bagels, yogurt (so many choices), orange/apple/grape juice, chocolate/regular/2% milk, toast, cereal, and much more...I mean the list could go on and on. It really didn't feel like I was staying in a Holiday Inn Express - more like a 4* hotel. The management at this hotel definitely needs to be given an award or something. The location is great as well. All around this hotel there are multiple restaurants - Cheddars, Springcreek BBQ, and many others; I just can't remember them all. Also there are two movie theaters, literally within walking distance. Go down I-20 for 5 minutes and you'll be at the Parks Mall in Arlington or an exit before that there is the 'Arlington Highlands' - pretty much a brand new entertainment district with bowling alleys, tons of restaurants, movie theater, Dave &amp; Buster's arcade, etc. All in all, a very great hotel and would recommend to anyone thats looking...I stayed here for one night and was very surprised. Check-in took literally less than one minute, and I had my room keys. Large king-size bed w/ like ten pillows, very clean room, mini-fridge, microwave, large clean bathroom w/ plenty of towels, plenty of toiletries, a sign offering complimentary toothbrush and other items incase you forgot anything. Beyond that, COMPLIMENTARY internet in the room (wireless &amp; ethernet hookup), complimentary bottled water &amp; fresh fruit kept chilled in the lobby 24 hours, complimentary breakfast - Eggs, bacon, sausage, muffins, bagels, yogurt (so many choices), orange/apple/grape juice, chocolate/regular/2% milk, toast, cereal, and much more...I mean the list could go on and on. It really didn't feel like I was staying in a Holiday Inn Express - more like a 4* hotel. The management at this hotel definitely needs to be given an award or something. The location is great as well. All around this hotel there are multiple restaurants - Cheddars, Springcreek BBQ, and many others; I just can't remember them all. Also there are two movie theaters, literally within walking distance. Go down I-20 for 5 minutes and you'll be at the Parks Mall in Arlington or an exit before that there is the 'Arlington Highlands' - pretty much a brand new entertainment district with bowling alleys, tons of restaurants, movie theater, Dave &amp; Buster's arcade, etc. All in all, a very great hotel and would recommend to anyone thats looking for accomodation in that area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r52593298-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>52593298</t>
+  </si>
+  <si>
+    <t>01/04/2010</t>
+  </si>
+  <si>
+    <t>couldn't have ask for anything more !</t>
+  </si>
+  <si>
+    <t>squeaky clean,friendly staff, good breakfast,comfy bed great price excellent location.what more could I ask for?</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r30554142-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>30554142</t>
+  </si>
+  <si>
+    <t>05/22/2009</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, and convenient.</t>
+  </si>
+  <si>
+    <t>We always stay here when visiting our daughter in Dallas.  The rooms have always been clean and comfortable, and the staff is excellent.  Rooms are spacious, with refrigerators and microwave ovens.  Breakfast is very good with a variety of choices.  You can pick up bottles of water and fresh fruit in the lobby at any time...and the mints they leave in your room each day are a nice touch.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r18496435-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>18496435</t>
+  </si>
+  <si>
+    <t>08/01/2008</t>
+  </si>
+  <si>
+    <t>A Wonderful Place to Stay</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel.  Everything about this hotel is good--location, staff, rooms.  I can't say enough good things about this hotel.  The staff is friendly and efficient.  The rooms are clean and so are the bathrooms.  The housekeeping staff responds well to all needs.  The hotel provides a free hot breakfast, cookies in the afternoon and free bottles of water.  The location to all area attractions is excellent.  The rates are extremely reasonable.I would definitely stay here again and recommend it to all my friends.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r14168443-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>14168443</t>
+  </si>
+  <si>
+    <t>03/09/2008</t>
+  </si>
+  <si>
+    <t>Great Hotel - Clean, Friendly and Great Location</t>
+  </si>
+  <si>
+    <t>This is a really nice new holiday inn express.  Location is great with lots of options for food - IHOP, Cheddars, BBQ - Albertson Grocery Store is in same center.  Nice rooms and comfortable beds.  I had a "suite" that had a 1/2 wall between the bed and sofa (hide a bed).  Nice robes and mints on pillows.   Pretty nice for a HIE.  Breakfast was good with eggs, sausage gravy, sausage, bacon, biscuits.  Lots of breakfast breads variety along with yogurt, oatmeal and cereal.  Coffee, Milk and Juice.Free bottles of water at check in - I was traveling alone and felt very safe at this property.The weather was getting very bad (snow &amp; sleet).  I arrived early (about 1PM) and was allowed to check in.  I really appreciated that...I would definitely recommend this hotel to travelers.Pool and hot tub are outside.  Didn't use them, but they really looked nice...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>This is a really nice new holiday inn express.  Location is great with lots of options for food - IHOP, Cheddars, BBQ - Albertson Grocery Store is in same center.  Nice rooms and comfortable beds.  I had a "suite" that had a 1/2 wall between the bed and sofa (hide a bed).  Nice robes and mints on pillows.   Pretty nice for a HIE.  Breakfast was good with eggs, sausage gravy, sausage, bacon, biscuits.  Lots of breakfast breads variety along with yogurt, oatmeal and cereal.  Coffee, Milk and Juice.Free bottles of water at check in - I was traveling alone and felt very safe at this property.The weather was getting very bad (snow &amp; sleet).  I arrived early (about 1PM) and was allowed to check in.  I really appreciated that...I would definitely recommend this hotel to travelers.Pool and hot tub are outside.  Didn't use them, but they really looked nice...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r8358065-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>8358065</t>
+  </si>
+  <si>
+    <t>08/04/2007</t>
+  </si>
+  <si>
+    <t>Comfortable, clean and new in convenient location</t>
+  </si>
+  <si>
+    <t>We booked this hotel for a 1-night stay after a Texas Rangers game. The hotel was clean and new.  We loved the location.  It was only a few minutes from the ballpark.  A Cheddar's restaurant was next door as well as an IHOP (we enjoyed appetizers at Cheddar's).  Also next door were a movie theater and Alberston's grocery; Starbuck's, Target and Kohl's were all just across the road.Our hotel room was a bit small, but fine for a 1-night stay.  The bedding was plush and comfortable.  Complimentary breakfast was available.  Rooms seemed quiet and all employees were courteous.The pool &amp; hot tub were in a fenced, landscaped area outside the hotel.  It was a bit strange, but we took advantage of it anyway and had the area all to ourselves for the entire morning.   Staff was accomodating when we asked for a later check-out.  It was no problem to extend our stay for an hour.We will go back to this hotel whenever we need to stay in the Arlington/Grand Prairie area.  We paid AAA rate $109/nt.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>We booked this hotel for a 1-night stay after a Texas Rangers game. The hotel was clean and new.  We loved the location.  It was only a few minutes from the ballpark.  A Cheddar's restaurant was next door as well as an IHOP (we enjoyed appetizers at Cheddar's).  Also next door were a movie theater and Alberston's grocery; Starbuck's, Target and Kohl's were all just across the road.Our hotel room was a bit small, but fine for a 1-night stay.  The bedding was plush and comfortable.  Complimentary breakfast was available.  Rooms seemed quiet and all employees were courteous.The pool &amp; hot tub were in a fenced, landscaped area outside the hotel.  It was a bit strange, but we took advantage of it anyway and had the area all to ourselves for the entire morning.   Staff was accomodating when we asked for a later check-out.  It was no problem to extend our stay for an hour.We will go back to this hotel whenever we need to stay in the Arlington/Grand Prairie area.  We paid AAA rate $109/nt.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r7707211-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
@@ -1412,9 +2197,6 @@
     <t>We went to the Dallas area for a long weekend to see a concert at theNokia Theater in Grand Prairie. We chose this hotel because of the great reviews on this website. We were not disappointed! As a matter of fact the only negative thing I have to say is the water pressure wasn't that great (and that wasn't even that big of a deal)! We thoroughly enjoyed everything about this well-run hotel. It was quiet, clean, the employees were friendly and helpful and the location was great for us.  We did not make it to the breakfast, but I was glad to find a nice coffee bar available well after the breakfast had closed. The TV was in an armoire that was high enough to see from the bed and it swiveled. There was a small refrigerator and a microwave in our room.The bed was high off the ground and the mattress was thick and firm.There were six pillows in our VERY COMFORTABLE king size bed. The bathroom had granite countertops and the free high speed internet connection was nice. The outdoor pool was very clean (and very busy on the hot weekend we were there).All in all, I can't say enough good things about this hotel. For us, it compared to a Marriott resort we once stayed in with a much lower price tag!More</t>
   </si>
   <si>
-    <t>bandmom77</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r5905207-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1431,9 +2213,6 @@
   </si>
   <si>
     <t>October 2006</t>
-  </si>
-  <si>
-    <t>Hoteltravaler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d589331-r5579884-Holiday_Inn_Express_Grand_Prairie_I_20-Grand_Prairie_Texas.html</t>
@@ -1953,108 +2732,106 @@
       <c r="A2" t="n">
         <v>31508</v>
       </c>
-      <c r="B2" t="n">
-        <v>12776</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31508</v>
       </c>
-      <c r="B3" t="n">
-        <v>155009</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2064,7 +2841,7 @@
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -2079,57 +2856,53 @@
       <c r="A4" t="n">
         <v>31508</v>
       </c>
-      <c r="B4" t="n">
-        <v>155010</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2137,121 +2910,107 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31508</v>
       </c>
-      <c r="B5" t="n">
-        <v>155011</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31508</v>
       </c>
-      <c r="B6" t="n">
-        <v>155012</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2265,194 +3024,184 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31508</v>
       </c>
-      <c r="B7" t="n">
-        <v>48923</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31508</v>
       </c>
-      <c r="B8" t="n">
-        <v>136765</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
       <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31508</v>
       </c>
-      <c r="B9" t="n">
-        <v>155013</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
       </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2460,180 +3209,174 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31508</v>
       </c>
-      <c r="B10" t="n">
-        <v>155014</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31508</v>
       </c>
-      <c r="B11" t="n">
-        <v>143283</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
         <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>120</v>
-      </c>
-      <c r="X11" t="s">
-        <v>121</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31508</v>
       </c>
-      <c r="B12" t="n">
-        <v>155015</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2644,137 +3387,119 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>120</v>
-      </c>
-      <c r="X12" t="s">
-        <v>121</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31508</v>
       </c>
-      <c r="B13" t="n">
-        <v>87815</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>137</v>
-      </c>
-      <c r="O13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="X13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31508</v>
       </c>
-      <c r="B14" t="n">
-        <v>155016</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>1</v>
@@ -2783,546 +3508,488 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31508</v>
       </c>
-      <c r="B15" t="n">
-        <v>14428</v>
-      </c>
-      <c r="C15" t="s">
-        <v>151</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>158</v>
-      </c>
-      <c r="X15" t="s">
-        <v>159</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31508</v>
       </c>
-      <c r="B16" t="n">
-        <v>155017</v>
-      </c>
-      <c r="C16" t="s">
-        <v>161</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31508</v>
       </c>
-      <c r="B17" t="n">
-        <v>91970</v>
-      </c>
-      <c r="C17" t="s">
-        <v>170</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>176</v>
-      </c>
-      <c r="X17" t="s">
-        <v>177</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31508</v>
       </c>
-      <c r="B18" t="n">
-        <v>3813</v>
-      </c>
-      <c r="C18" t="s">
-        <v>179</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31508</v>
       </c>
-      <c r="B19" t="n">
-        <v>155018</v>
-      </c>
-      <c r="C19" t="s">
-        <v>187</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
         <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>176</v>
-      </c>
-      <c r="X19" t="s">
-        <v>177</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31508</v>
       </c>
-      <c r="B20" t="n">
-        <v>8062</v>
-      </c>
-      <c r="C20" t="s">
-        <v>194</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="O20" t="s">
-        <v>201</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="n">
         <v>4</v>
       </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>202</v>
-      </c>
-      <c r="X20" t="s">
-        <v>203</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31508</v>
       </c>
-      <c r="B21" t="n">
-        <v>155019</v>
-      </c>
-      <c r="C21" t="s">
-        <v>205</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>202</v>
-      </c>
-      <c r="X21" t="s">
-        <v>203</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31508</v>
       </c>
-      <c r="B22" t="n">
-        <v>155020</v>
-      </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
@@ -3332,61 +3999,53 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>202</v>
-      </c>
-      <c r="X22" t="s">
-        <v>203</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31508</v>
       </c>
-      <c r="B23" t="n">
-        <v>155021</v>
-      </c>
-      <c r="C23" t="s">
-        <v>220</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3397,136 +4056,122 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>202</v>
-      </c>
-      <c r="X23" t="s">
-        <v>203</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31508</v>
       </c>
-      <c r="B24" t="n">
-        <v>9139</v>
-      </c>
-      <c r="C24" t="s">
-        <v>228</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>202</v>
-      </c>
-      <c r="X24" t="s">
-        <v>203</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31508</v>
       </c>
-      <c r="B25" t="n">
-        <v>155022</v>
-      </c>
-      <c r="C25" t="s">
-        <v>235</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="L25" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
       </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
         <v>5</v>
       </c>
@@ -3537,296 +4182,238 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>202</v>
-      </c>
-      <c r="X25" t="s">
-        <v>203</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31508</v>
       </c>
-      <c r="B26" t="n">
-        <v>155023</v>
-      </c>
-      <c r="C26" t="s">
-        <v>243</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="J26" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="K26" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
-      <c r="N26" t="s">
-        <v>200</v>
-      </c>
-      <c r="O26" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>249</v>
-      </c>
-      <c r="X26" t="s">
-        <v>250</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31508</v>
       </c>
-      <c r="B27" t="n">
-        <v>357</v>
-      </c>
-      <c r="C27" t="s">
-        <v>252</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="X27" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31508</v>
       </c>
-      <c r="B28" t="n">
-        <v>155024</v>
-      </c>
-      <c r="C28" t="s">
-        <v>262</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="O28" t="s">
-        <v>92</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="X28" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="Y28" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>31508</v>
       </c>
-      <c r="B29" t="n">
-        <v>34139</v>
-      </c>
-      <c r="C29" t="s">
-        <v>269</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
       </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
         <v>5</v>
       </c>
@@ -3838,350 +4425,318 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="X29" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="Y29" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>31508</v>
       </c>
-      <c r="B30" t="n">
-        <v>155025</v>
-      </c>
-      <c r="C30" t="s">
-        <v>276</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="J30" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="K30" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="L30" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="O30" t="s">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="X30" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="Y30" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>31508</v>
       </c>
-      <c r="B31" t="n">
-        <v>9137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>285</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
         <v>5</v>
       </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X31" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="Y31" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31508</v>
       </c>
-      <c r="B32" t="n">
-        <v>607</v>
-      </c>
-      <c r="C32" t="s">
-        <v>292</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="J32" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="N32" t="s">
+        <v>231</v>
+      </c>
+      <c r="O32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
+        <v>258</v>
+      </c>
+      <c r="X32" t="s">
         <v>259</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>260</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31508</v>
       </c>
-      <c r="B33" t="n">
-        <v>155026</v>
-      </c>
-      <c r="C33" t="s">
-        <v>299</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="J33" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="K33" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="X33" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="Y33" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31508</v>
       </c>
-      <c r="B34" t="n">
-        <v>155027</v>
-      </c>
-      <c r="C34" t="s">
-        <v>308</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="J34" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
         <v>5</v>
       </c>
@@ -4193,496 +4748,436 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="X34" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="Y34" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>31508</v>
       </c>
-      <c r="B35" t="n">
-        <v>155028</v>
-      </c>
-      <c r="C35" t="s">
-        <v>316</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="J35" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="K35" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>322</v>
-      </c>
-      <c r="O35" t="s">
-        <v>54</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="X35" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="Y35" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>31508</v>
       </c>
-      <c r="B36" t="n">
-        <v>23676</v>
-      </c>
-      <c r="C36" t="s">
-        <v>324</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="J36" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s">
-        <v>92</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>288</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="X36" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="Y36" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>31508</v>
       </c>
-      <c r="B37" t="n">
-        <v>155029</v>
-      </c>
-      <c r="C37" t="s">
-        <v>334</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="J37" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
         <v>4</v>
       </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="X37" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="Y37" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>31508</v>
       </c>
-      <c r="B38" t="n">
-        <v>41399</v>
-      </c>
-      <c r="C38" t="s">
-        <v>341</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="J38" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="K38" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>347</v>
-      </c>
-      <c r="O38" t="s">
-        <v>62</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="X38" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="Y38" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>31508</v>
       </c>
-      <c r="B39" t="n">
-        <v>155030</v>
-      </c>
-      <c r="C39" t="s">
-        <v>349</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="J39" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="O39" t="s">
-        <v>201</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="X39" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="Y39" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>31508</v>
       </c>
-      <c r="B40" t="n">
-        <v>155031</v>
-      </c>
-      <c r="C40" t="s">
-        <v>357</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+      <c r="N40" t="s">
+        <v>310</v>
+      </c>
+      <c r="O40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="X40" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="Y40" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>31508</v>
       </c>
-      <c r="B41" t="n">
-        <v>155032</v>
-      </c>
-      <c r="C41" t="s">
-        <v>364</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4704,134 +5199,124 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="X41" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="Y41" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>31508</v>
       </c>
-      <c r="B42" t="n">
-        <v>155033</v>
-      </c>
-      <c r="C42" t="s">
-        <v>371</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="K42" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="L42" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="X42" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="Y42" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>31508</v>
       </c>
-      <c r="B43" t="n">
-        <v>6371</v>
-      </c>
-      <c r="C43" t="s">
-        <v>379</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="J43" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s">
-        <v>339</v>
-      </c>
-      <c r="O43" t="s">
-        <v>62</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="n">
         <v>5</v>
       </c>
@@ -4842,138 +5327,138 @@
         <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="X43" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="Y43" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>31508</v>
       </c>
-      <c r="B44" t="n">
-        <v>155034</v>
-      </c>
-      <c r="C44" t="s">
-        <v>386</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="J44" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="K44" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>344</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
       <c r="P44" t="n">
         <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="X44" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="Y44" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>31508</v>
       </c>
-      <c r="B45" t="n">
-        <v>9048</v>
-      </c>
-      <c r="C45" t="s">
-        <v>393</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="J45" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
+      <c r="N45" t="s">
+        <v>344</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
       <c r="P45" t="n">
         <v>5</v>
       </c>
@@ -4994,69 +5479,65 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>399</v>
+        <v>345</v>
       </c>
       <c r="X45" t="s">
-        <v>400</v>
+        <v>346</v>
       </c>
       <c r="Y45" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>31508</v>
       </c>
-      <c r="B46" t="n">
-        <v>155035</v>
-      </c>
-      <c r="C46" t="s">
-        <v>402</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="J46" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="K46" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="O46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5069,67 +5550,65 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="X46" t="s">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="Y46" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>31508</v>
       </c>
-      <c r="B47" t="n">
-        <v>9299</v>
-      </c>
-      <c r="C47" t="s">
-        <v>412</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="J47" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="K47" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
-      </c>
-      <c r="N47" t="s">
-        <v>418</v>
-      </c>
-      <c r="O47" t="s">
-        <v>62</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
       <c r="P47" t="n">
         <v>3</v>
       </c>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -5138,60 +5617,56 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="X47" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="Y47" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>31508</v>
       </c>
-      <c r="B48" t="n">
-        <v>155036</v>
-      </c>
-      <c r="C48" t="s">
-        <v>422</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="J48" t="s">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5200,10 +5675,10 @@
         <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5213,62 +5688,62 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
       <c r="X48" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="Y48" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>31508</v>
       </c>
-      <c r="B49" t="n">
-        <v>155030</v>
-      </c>
-      <c r="C49" t="s">
-        <v>357</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="J49" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="K49" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s">
-        <v>435</v>
+        <v>382</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+      <c r="N49" t="s">
+        <v>374</v>
+      </c>
+      <c r="O49" t="s">
+        <v>85</v>
+      </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
         <v>4</v>
@@ -5284,207 +5759,195 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
       <c r="X49" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="Y49" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>31508</v>
       </c>
-      <c r="B50" t="n">
-        <v>155037</v>
-      </c>
-      <c r="C50" t="s">
-        <v>437</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="J50" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="K50" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="L50" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>389</v>
+      </c>
+      <c r="O50" t="s">
+        <v>101</v>
+      </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
       <c r="X50" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="Y50" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>31508</v>
       </c>
-      <c r="B51" t="n">
-        <v>17835</v>
-      </c>
-      <c r="C51" t="s">
-        <v>444</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="J51" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="K51" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="O51" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="X51" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="Y51" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>31508</v>
       </c>
-      <c r="B52" t="n">
-        <v>155038</v>
-      </c>
-      <c r="C52" t="s">
-        <v>454</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="J52" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="K52" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="L52" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
-      <c r="N52" t="s">
-        <v>460</v>
-      </c>
-      <c r="O52" t="s">
-        <v>92</v>
-      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
       <c r="P52" t="n">
         <v>5</v>
       </c>
@@ -5504,57 +5967,57 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>396</v>
+      </c>
+      <c r="X52" t="s">
+        <v>397</v>
+      </c>
       <c r="Y52" t="s">
-        <v>461</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>31508</v>
       </c>
-      <c r="B53" t="n">
-        <v>155039</v>
-      </c>
-      <c r="C53" t="s">
-        <v>462</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>463</v>
+        <v>404</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="J53" t="s">
-        <v>465</v>
+        <v>406</v>
       </c>
       <c r="K53" t="s">
-        <v>466</v>
+        <v>407</v>
       </c>
       <c r="L53" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>468</v>
+        <v>389</v>
       </c>
       <c r="O53" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5575,57 +6038,57 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>396</v>
+      </c>
+      <c r="X53" t="s">
+        <v>397</v>
+      </c>
       <c r="Y53" t="s">
-        <v>467</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>31508</v>
       </c>
-      <c r="B54" t="n">
-        <v>155040</v>
-      </c>
-      <c r="C54" t="s">
-        <v>469</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
       <c r="J54" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
       <c r="K54" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s">
-        <v>473</v>
+        <v>414</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>474</v>
+        <v>389</v>
       </c>
       <c r="O54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5646,10 +6109,3110 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>396</v>
+      </c>
+      <c r="X54" t="s">
+        <v>397</v>
+      </c>
       <c r="Y54" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>416</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>417</v>
+      </c>
+      <c r="J55" t="s">
+        <v>418</v>
+      </c>
+      <c r="K55" t="s">
+        <v>419</v>
+      </c>
+      <c r="L55" t="s">
+        <v>420</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>389</v>
+      </c>
+      <c r="O55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>396</v>
+      </c>
+      <c r="X55" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>422</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>423</v>
+      </c>
+      <c r="J56" t="s">
+        <v>424</v>
+      </c>
+      <c r="K56" t="s">
+        <v>425</v>
+      </c>
+      <c r="L56" t="s">
+        <v>426</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>427</v>
+      </c>
+      <c r="O56" t="s">
+        <v>74</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>396</v>
+      </c>
+      <c r="X56" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>429</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>430</v>
+      </c>
+      <c r="J57" t="s">
+        <v>431</v>
+      </c>
+      <c r="K57" t="s">
+        <v>401</v>
+      </c>
+      <c r="L57" t="s">
+        <v>432</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>396</v>
+      </c>
+      <c r="X57" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>434</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>435</v>
+      </c>
+      <c r="J58" t="s">
+        <v>436</v>
+      </c>
+      <c r="K58" t="s">
+        <v>437</v>
+      </c>
+      <c r="L58" t="s">
+        <v>438</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>396</v>
+      </c>
+      <c r="X58" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>440</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>441</v>
+      </c>
+      <c r="J59" t="s">
+        <v>442</v>
+      </c>
+      <c r="K59" t="s">
+        <v>209</v>
+      </c>
+      <c r="L59" t="s">
+        <v>443</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>444</v>
+      </c>
+      <c r="O59" t="s">
+        <v>85</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>445</v>
+      </c>
+      <c r="X59" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>448</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>449</v>
+      </c>
+      <c r="J60" t="s">
+        <v>450</v>
+      </c>
+      <c r="K60" t="s">
+        <v>451</v>
+      </c>
+      <c r="L60" t="s">
+        <v>452</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>453</v>
+      </c>
+      <c r="O60" t="s">
+        <v>85</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>445</v>
+      </c>
+      <c r="X60" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>455</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>456</v>
+      </c>
+      <c r="J61" t="s">
+        <v>457</v>
+      </c>
+      <c r="K61" t="s">
+        <v>458</v>
+      </c>
+      <c r="L61" t="s">
+        <v>459</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>460</v>
+      </c>
+      <c r="O61" t="s">
+        <v>85</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>445</v>
+      </c>
+      <c r="X61" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>462</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>463</v>
+      </c>
+      <c r="J62" t="s">
+        <v>464</v>
+      </c>
+      <c r="K62" t="s">
+        <v>465</v>
+      </c>
+      <c r="L62" t="s">
+        <v>466</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>467</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>468</v>
+      </c>
+      <c r="X62" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>471</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>472</v>
+      </c>
+      <c r="J63" t="s">
+        <v>464</v>
+      </c>
+      <c r="K63" t="s">
         <v>473</v>
+      </c>
+      <c r="L63" t="s">
+        <v>474</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>475</v>
+      </c>
+      <c r="O63" t="s">
+        <v>101</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>468</v>
+      </c>
+      <c r="X63" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>477</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>478</v>
+      </c>
+      <c r="J64" t="s">
+        <v>479</v>
+      </c>
+      <c r="K64" t="s">
+        <v>480</v>
+      </c>
+      <c r="L64" t="s">
+        <v>481</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>482</v>
+      </c>
+      <c r="O64" t="s">
+        <v>101</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>468</v>
+      </c>
+      <c r="X64" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>484</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>485</v>
+      </c>
+      <c r="J65" t="s">
+        <v>486</v>
+      </c>
+      <c r="K65" t="s">
+        <v>487</v>
+      </c>
+      <c r="L65" t="s">
+        <v>488</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>489</v>
+      </c>
+      <c r="O65" t="s">
+        <v>288</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>468</v>
+      </c>
+      <c r="X65" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>491</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>492</v>
+      </c>
+      <c r="J66" t="s">
+        <v>493</v>
+      </c>
+      <c r="K66" t="s">
+        <v>494</v>
+      </c>
+      <c r="L66" t="s">
+        <v>495</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>468</v>
+      </c>
+      <c r="X66" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>497</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>498</v>
+      </c>
+      <c r="J67" t="s">
+        <v>499</v>
+      </c>
+      <c r="K67" t="s">
+        <v>500</v>
+      </c>
+      <c r="L67" t="s">
+        <v>501</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>489</v>
+      </c>
+      <c r="O67" t="s">
+        <v>101</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>468</v>
+      </c>
+      <c r="X67" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>503</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>504</v>
+      </c>
+      <c r="J68" t="s">
+        <v>505</v>
+      </c>
+      <c r="K68" t="s">
+        <v>487</v>
+      </c>
+      <c r="L68" t="s">
+        <v>506</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>475</v>
+      </c>
+      <c r="O68" t="s">
+        <v>85</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>507</v>
+      </c>
+      <c r="X68" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>510</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>511</v>
+      </c>
+      <c r="J69" t="s">
+        <v>512</v>
+      </c>
+      <c r="K69" t="s">
+        <v>513</v>
+      </c>
+      <c r="L69" t="s">
+        <v>514</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>475</v>
+      </c>
+      <c r="O69" t="s">
+        <v>101</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>507</v>
+      </c>
+      <c r="X69" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>516</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>517</v>
+      </c>
+      <c r="J70" t="s">
+        <v>518</v>
+      </c>
+      <c r="K70" t="s">
+        <v>519</v>
+      </c>
+      <c r="L70" t="s">
+        <v>520</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>507</v>
+      </c>
+      <c r="X70" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>522</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>523</v>
+      </c>
+      <c r="J71" t="s">
+        <v>524</v>
+      </c>
+      <c r="K71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L71" t="s">
+        <v>526</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>527</v>
+      </c>
+      <c r="X71" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>530</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>531</v>
+      </c>
+      <c r="J72" t="s">
+        <v>532</v>
+      </c>
+      <c r="K72" t="s">
+        <v>533</v>
+      </c>
+      <c r="L72" t="s">
+        <v>534</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>535</v>
+      </c>
+      <c r="O72" t="s">
+        <v>85</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>536</v>
+      </c>
+      <c r="X72" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>539</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>540</v>
+      </c>
+      <c r="J73" t="s">
+        <v>541</v>
+      </c>
+      <c r="K73" t="s">
+        <v>542</v>
+      </c>
+      <c r="L73" t="s">
+        <v>543</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>544</v>
+      </c>
+      <c r="O73" t="s">
+        <v>101</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>545</v>
+      </c>
+      <c r="X73" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>548</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>549</v>
+      </c>
+      <c r="J74" t="s">
+        <v>550</v>
+      </c>
+      <c r="K74" t="s">
+        <v>551</v>
+      </c>
+      <c r="L74" t="s">
+        <v>552</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>544</v>
+      </c>
+      <c r="O74" t="s">
+        <v>85</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>553</v>
+      </c>
+      <c r="X74" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>556</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>557</v>
+      </c>
+      <c r="J75" t="s">
+        <v>558</v>
+      </c>
+      <c r="K75" t="s">
+        <v>559</v>
+      </c>
+      <c r="L75" t="s">
+        <v>560</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>553</v>
+      </c>
+      <c r="X75" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>562</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>563</v>
+      </c>
+      <c r="J76" t="s">
+        <v>564</v>
+      </c>
+      <c r="K76" t="s">
+        <v>565</v>
+      </c>
+      <c r="L76" t="s">
+        <v>566</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>553</v>
+      </c>
+      <c r="X76" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>568</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>569</v>
+      </c>
+      <c r="J77" t="s">
+        <v>570</v>
+      </c>
+      <c r="K77" t="s">
+        <v>571</v>
+      </c>
+      <c r="L77" t="s">
+        <v>572</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>573</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>574</v>
+      </c>
+      <c r="X77" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>577</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>578</v>
+      </c>
+      <c r="J78" t="s">
+        <v>579</v>
+      </c>
+      <c r="K78" t="s">
+        <v>580</v>
+      </c>
+      <c r="L78" t="s">
+        <v>581</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>582</v>
+      </c>
+      <c r="X78" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>585</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>586</v>
+      </c>
+      <c r="J79" t="s">
+        <v>587</v>
+      </c>
+      <c r="K79" t="s">
+        <v>588</v>
+      </c>
+      <c r="L79" t="s">
+        <v>589</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>590</v>
+      </c>
+      <c r="O79" t="s">
+        <v>85</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>582</v>
+      </c>
+      <c r="X79" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>592</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>593</v>
+      </c>
+      <c r="J80" t="s">
+        <v>594</v>
+      </c>
+      <c r="K80" t="s">
+        <v>595</v>
+      </c>
+      <c r="L80" t="s">
+        <v>596</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>590</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>582</v>
+      </c>
+      <c r="X80" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>598</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>599</v>
+      </c>
+      <c r="J81" t="s">
+        <v>600</v>
+      </c>
+      <c r="K81" t="s">
+        <v>601</v>
+      </c>
+      <c r="L81" t="s">
+        <v>602</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>603</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>582</v>
+      </c>
+      <c r="X81" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>605</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>606</v>
+      </c>
+      <c r="J82" t="s">
+        <v>607</v>
+      </c>
+      <c r="K82" t="s">
+        <v>608</v>
+      </c>
+      <c r="L82" t="s">
+        <v>609</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>603</v>
+      </c>
+      <c r="O82" t="s">
+        <v>85</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>611</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>612</v>
+      </c>
+      <c r="J83" t="s">
+        <v>613</v>
+      </c>
+      <c r="K83" t="s">
+        <v>614</v>
+      </c>
+      <c r="L83" t="s">
+        <v>615</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>616</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>617</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>618</v>
+      </c>
+      <c r="J84" t="s">
+        <v>619</v>
+      </c>
+      <c r="K84" t="s">
+        <v>620</v>
+      </c>
+      <c r="L84" t="s">
+        <v>621</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>603</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>623</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>624</v>
+      </c>
+      <c r="J85" t="s">
+        <v>625</v>
+      </c>
+      <c r="K85" t="s">
+        <v>626</v>
+      </c>
+      <c r="L85" t="s">
+        <v>627</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>616</v>
+      </c>
+      <c r="O85" t="s">
+        <v>85</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>628</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>629</v>
+      </c>
+      <c r="J86" t="s">
+        <v>630</v>
+      </c>
+      <c r="K86" t="s">
+        <v>631</v>
+      </c>
+      <c r="L86" t="s">
+        <v>632</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>633</v>
+      </c>
+      <c r="O86" t="s">
+        <v>288</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>634</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>635</v>
+      </c>
+      <c r="J87" t="s">
+        <v>636</v>
+      </c>
+      <c r="K87" t="s">
+        <v>637</v>
+      </c>
+      <c r="L87" t="s">
+        <v>638</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>639</v>
+      </c>
+      <c r="O87" t="s">
+        <v>101</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>641</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>642</v>
+      </c>
+      <c r="J88" t="s">
+        <v>643</v>
+      </c>
+      <c r="K88" t="s">
+        <v>644</v>
+      </c>
+      <c r="L88" t="s">
+        <v>645</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>646</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>647</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>648</v>
+      </c>
+      <c r="J89" t="s">
+        <v>643</v>
+      </c>
+      <c r="K89" t="s">
+        <v>649</v>
+      </c>
+      <c r="L89" t="s">
+        <v>650</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>646</v>
+      </c>
+      <c r="O89" t="s">
+        <v>101</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>651</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>652</v>
+      </c>
+      <c r="J90" t="s">
+        <v>653</v>
+      </c>
+      <c r="K90" t="s">
+        <v>654</v>
+      </c>
+      <c r="L90" t="s">
+        <v>655</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>639</v>
+      </c>
+      <c r="O90" t="s">
+        <v>85</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>656</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>657</v>
+      </c>
+      <c r="J91" t="s">
+        <v>658</v>
+      </c>
+      <c r="K91" t="s">
+        <v>659</v>
+      </c>
+      <c r="L91" t="s">
+        <v>660</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>661</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>662</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>663</v>
+      </c>
+      <c r="J92" t="s">
+        <v>664</v>
+      </c>
+      <c r="K92" t="s">
+        <v>665</v>
+      </c>
+      <c r="L92" t="s">
+        <v>666</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>661</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>668</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>669</v>
+      </c>
+      <c r="J93" t="s">
+        <v>670</v>
+      </c>
+      <c r="K93" t="s">
+        <v>671</v>
+      </c>
+      <c r="L93" t="s">
+        <v>672</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>673</v>
+      </c>
+      <c r="O93" t="s">
+        <v>101</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>674</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>675</v>
+      </c>
+      <c r="J94" t="s">
+        <v>676</v>
+      </c>
+      <c r="K94" t="s">
+        <v>677</v>
+      </c>
+      <c r="L94" t="s">
+        <v>678</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>679</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>680</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>681</v>
+      </c>
+      <c r="J95" t="s">
+        <v>682</v>
+      </c>
+      <c r="K95" t="s">
+        <v>683</v>
+      </c>
+      <c r="L95" t="s">
+        <v>684</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>685</v>
+      </c>
+      <c r="O95" t="s">
+        <v>74</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>686</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>687</v>
+      </c>
+      <c r="J96" t="s">
+        <v>688</v>
+      </c>
+      <c r="K96" t="s">
+        <v>689</v>
+      </c>
+      <c r="L96" t="s">
+        <v>690</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>691</v>
+      </c>
+      <c r="O96" t="s">
+        <v>85</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>693</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>694</v>
+      </c>
+      <c r="J97" t="s">
+        <v>695</v>
+      </c>
+      <c r="K97" t="s">
+        <v>696</v>
+      </c>
+      <c r="L97" t="s">
+        <v>697</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>698</v>
+      </c>
+      <c r="O97" t="s">
+        <v>101</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>700</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>701</v>
+      </c>
+      <c r="J98" t="s">
+        <v>702</v>
+      </c>
+      <c r="K98" t="s">
+        <v>703</v>
+      </c>
+      <c r="L98" t="s">
+        <v>704</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>705</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>707</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>708</v>
+      </c>
+      <c r="J99" t="s">
+        <v>709</v>
+      </c>
+      <c r="K99" t="s">
+        <v>710</v>
+      </c>
+      <c r="L99" t="s">
+        <v>711</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>712</v>
+      </c>
+      <c r="O99" t="s">
+        <v>85</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>31508</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>713</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>714</v>
+      </c>
+      <c r="J100" t="s">
+        <v>715</v>
+      </c>
+      <c r="K100" t="s">
+        <v>710</v>
+      </c>
+      <c r="L100" t="s">
+        <v>716</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>717</v>
+      </c>
+      <c r="O100" t="s">
+        <v>85</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
